--- a/Report_Third_Pearson.xlsx
+++ b/Report_Third_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,29 +485,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-1.72463768115942</v>
-      </c>
       <c r="E2" t="n">
-        <v>1.255</v>
+        <v>0.004951088910957091</v>
       </c>
       <c r="F2" t="n">
-        <v>1.508759014212709</v>
+        <v>0.009902177821914184</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7561807743472166</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.407153292164764</v>
+        <v>-0.009900989956530548</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-1.20219842 -0.60253448]</t>
+          <t>[-2.  0.]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -522,35 +522,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.508759014212709</v>
+        <v>0.009902177821914184</v>
       </c>
       <c r="C3" t="n">
-        <v>1.756180774347217</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.131790973324184</v>
+        <v>0.9900990100434695</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6449999999999998</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.9011039578874245</v>
+        <v>-6.529666586126311e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9635825354536425</v>
+        <v>1.715529879902791e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.0310830696117</v>
+        <v>7.745680596915605e-08</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[ 1.91569372 -0.97529309]</t>
+          <t>[ 2.39920027e-04 -1.98043556e+00]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[ 0.44849748 -0.55150252]
- [-0.55150252  0.44849748]]</t>
+          <t>[[ 0.00249988 -0.99750012]
+ [-0.99750012  0.00249988]]</t>
         </is>
       </c>
     </row>
@@ -559,35 +559,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.607655056325284</v>
+        <v>0.009836881156052921</v>
       </c>
       <c r="C4" t="n">
-        <v>2.719763309800859</v>
+        <v>1.715529879902791e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>-4.162874042935885</v>
+        <v>0.9900990875002754</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03499999999999975</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01860531266801946</v>
+        <v>-0.0001301617051060553</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.06396493682518667</v>
+        <v>-6.556338382361765e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.05386500786031068</v>
+        <v>0.0001311098906844332</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-1.57435961 -0.27837035]</t>
+          <t>[-0.01298432 -1.96734192]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[-0.1366686 -1.1366686]
- [-1.1366686 -0.1366686]]</t>
+          <t>[[-0.99507356 -1.99507356]
+ [-1.99507356 -0.99507356]]</t>
         </is>
       </c>
     </row>
@@ -596,35 +596,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.589049743657265</v>
+        <v>0.009706719450946866</v>
       </c>
       <c r="C5" t="n">
-        <v>2.655798372975672</v>
+        <v>-6.539183083562737e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>-4.109009035075574</v>
+        <v>0.9902301973909599</v>
       </c>
       <c r="E5" t="n">
-        <v>0.09566666666666643</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3079148423959361</v>
+        <v>-0.0001951388024173748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.193697458733896</v>
+        <v>-0.0001314031654754294</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.3632725806180082</v>
+        <v>0.0002623672445478675</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-1.65467295 -0.46076302]</t>
+          <t>[-0.0261643  -1.95442226]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[1.73930344 0.73930344]
- [0.73930344 1.73930344]]</t>
+          <t>[[-1.99400881 -2.99400881]
+ [-2.99400881 -1.99400881]]</t>
         </is>
       </c>
     </row>
@@ -633,35 +633,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.896964586053201</v>
+        <v>0.009511580648529491</v>
       </c>
       <c r="C6" t="n">
-        <v>2.849495831709568</v>
+        <v>-0.0001967949963110567</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.472281615693582</v>
+        <v>0.9904925646355077</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2256666666666664</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05697878629009767</v>
+        <v>-0.0002605672613522746</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1243334016590056</v>
+        <v>-0.0001976871983012099</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.03331745550770648</v>
+        <v>0.0003945483406595507</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.4794938   0.32395755]</t>
+          <t>[-0.03930171 -1.94167513]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[-0.45948526 -1.45948526]
- [-1.45948526 -0.45948526]]</t>
+          <t>[[-2.99929138 -3.99929138]
+ [-3.99929138 -2.99929138]]</t>
         </is>
       </c>
     </row>
@@ -670,35 +670,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.953943372343299</v>
+        <v>0.009251013387177216</v>
       </c>
       <c r="C7" t="n">
-        <v>2.725162430050563</v>
+        <v>-0.0003944821946122667</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.505599071201289</v>
+        <v>0.9908871129761673</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.06433333333333362</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04285434955440093</v>
+        <v>-0.0003272193890143053</v>
       </c>
       <c r="G7" t="n">
-        <v>0.05117113015937003</v>
+        <v>-0.0002651879132527016</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.006258014487219299</v>
+        <v>0.0005292115539811126</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.23273502 -0.10345863]</t>
+          <t>[-0.05239886 -1.92909912]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[-1.67365192 -2.67365192]
- [-2.67365192 -1.67365192]]</t>
+          <t>[[-4.02251042 -5.02251042]
+ [-5.02251042 -4.02251042]]</t>
         </is>
       </c>
     </row>
@@ -707,35 +707,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.9967977218977</v>
+        <v>0.008923793998162911</v>
       </c>
       <c r="C8" t="n">
-        <v>2.776333560209933</v>
+        <v>-0.0006596701078649683</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.511857085688508</v>
+        <v>0.9914163245301484</v>
       </c>
       <c r="E8" t="n">
-        <v>0.06566666666666639</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.005596134728145019</v>
+        <v>-0.0003965637504512957</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01110163822839993</v>
+        <v>-0.00033537404864335</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0003759744359470574</v>
+        <v>0.0006692996130520656</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.01580188  0.06803827]</t>
+          <t>[-0.06545959 -1.91669282]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[[2.93394309 1.93394309]
- [1.93394309 2.93394309]]</t>
+          <t>[[-5.08585857 -6.08585857]
+ [-6.08585857 -5.08585857]]</t>
         </is>
       </c>
     </row>
@@ -744,35 +744,35 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.991201587169555</v>
+        <v>0.008527230247711615</v>
       </c>
       <c r="C9" t="n">
-        <v>2.765231921981533</v>
+        <v>-0.0009950441565083183</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.512233060124455</v>
+        <v>0.9920856241432005</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1348666666666664</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0009024759110014546</v>
+        <v>-0.0004712264797832166</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.009003552888220412</v>
+        <v>-0.0004108720066503056</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.000168668268094585</v>
+        <v>0.0008200603958817831</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-0.04367569  0.02977484]</t>
+          <t>[-0.07849066 -1.90445488]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[[-1.66056273 -2.66056273]
- [-2.66056273 -1.66056273]]</t>
+          <t>[[-6.22913274 -7.22913274]
+ [-7.22913274 -6.22913274]]</t>
         </is>
       </c>
     </row>
@@ -781,35 +781,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.992104063080556</v>
+        <v>0.008056003767928399</v>
       </c>
       <c r="C10" t="n">
-        <v>2.756228369093312</v>
+        <v>-0.001405916163158624</v>
       </c>
       <c r="D10" t="n">
-        <v>-4.512401728392549</v>
+        <v>0.9929056845390822</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004866666666666422</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001293962870829057</v>
+        <v>-0.0005559843016355714</v>
       </c>
       <c r="G10" t="n">
-        <v>0.001104909226715023</v>
+        <v>-0.0004964589500179096</v>
       </c>
       <c r="H10" t="n">
-        <v>-4.532127751311066e-05</v>
+        <v>0.0009910292031302115</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>[-0.03938744 -0.0005408 ]</t>
+          <t>[-0.09150401 -1.89238399]</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>[[6.67255935 5.67255935]
- [5.67255935 6.67255935]]</t>
+          <t>[[-7.52480234 -8.52480234]
+ [-8.52480234 -7.52480234]]</t>
         </is>
       </c>
     </row>
@@ -818,35 +818,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.993398025951385</v>
+        <v>0.007500019466292827</v>
       </c>
       <c r="C11" t="n">
-        <v>2.757333278320028</v>
+        <v>-0.001902375113176533</v>
       </c>
       <c r="D11" t="n">
-        <v>-4.512447049670063</v>
+        <v>0.9938967137422124</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.005133333333333578</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0008036432182765285</v>
+        <v>-0.0006602873033483498</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0009889097840845018</v>
+        <v>-0.0006015857141871974</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.004989558646031e-05</v>
+        <v>0.001201063737672925</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>[-0.03291424  0.00317665]</t>
+          <t>[-0.10452105 -1.88047892]</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>[[-5.37133526 -6.37133526]
- [-6.37133526 -5.37133526]]</t>
+          <t>[[ -9.11629896 -10.11629896]
+ [-10.11629896  -9.11629896]]</t>
         </is>
       </c>
     </row>
@@ -855,35 +855,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.994201669169662</v>
+        <v>0.006839732162944478</v>
       </c>
       <c r="C12" t="n">
-        <v>2.758322188104112</v>
+        <v>-0.002503960827363731</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.512467099565649</v>
+        <v>0.9950977774798854</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01375555555555531</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F12" t="n">
-        <v>0.002130067501062483</v>
+        <v>-0.0008060161440122055</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001643192835589335</v>
+        <v>-0.0007481343211754913</v>
       </c>
       <c r="H12" t="n">
-        <v>-3.498036820914763e-05</v>
+        <v>0.001493825115040925</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>[-0.02889278  0.00650199]</t>
+          <t>[-0.11758194 -1.8687386 ]</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>[[6.62546684 5.62546684]
- [5.62546684 6.62546684]]</t>
+          <t>[[-11.33577049 -12.33577049]
+ [-12.33577049 -11.33577049]]</t>
         </is>
       </c>
     </row>
@@ -892,35 +892,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.996331736670724</v>
+        <v>0.006033716018932272</v>
       </c>
       <c r="C13" t="n">
-        <v>2.759965380939701</v>
+        <v>-0.003252095148539222</v>
       </c>
       <c r="D13" t="n">
-        <v>-4.512502079933858</v>
+        <v>0.9965916025949263</v>
       </c>
       <c r="E13" t="n">
-        <v>0.01375555555555531</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0002877193181143323</v>
+        <v>-0.001059564463616282</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0007046590339769843</v>
+        <v>-0.001002501202342698</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.191711374166516e-06</v>
+        <v>0.002001815269752294</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>[-0.01826321  0.01204743]</t>
+          <t>[-0.13077033 -1.85716223]</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>[[-5.30328334 -6.30328334]
- [-6.30328334 -5.30328334]]</t>
+          <t>[[-15.19110929 -16.19110929]
+ [-16.19110929 -15.19110929]]</t>
         </is>
       </c>
     </row>
@@ -929,35 +929,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.99604401735261</v>
+        <v>0.00497415155531599</v>
       </c>
       <c r="C14" t="n">
-        <v>2.759260721905724</v>
+        <v>-0.00425459635088192</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.512504271645232</v>
+        <v>0.9985934178646786</v>
       </c>
       <c r="E14" t="n">
-        <v>0.01375555555555531</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F14" t="n">
-        <v>0.001047300999121648</v>
+        <v>-0.001768274163118516</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0006431797881347734</v>
+        <v>-0.001712035402193503</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.097919137826864e-05</v>
+        <v>0.003418597402791712</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>[-0.01970308  0.00967568]</t>
+          <t>[-0.14430212 -1.84574958]</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>[[6.62792866 5.62792866]
- [5.62792866 6.62792866]]</t>
+          <t>[[-25.95491202 -26.95491202]
+ [-26.95491202 -25.95491202]]</t>
         </is>
       </c>
     </row>
@@ -966,35 +966,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.997091318351731</v>
+        <v>0.003205877392197473</v>
       </c>
       <c r="C15" t="n">
-        <v>2.759903901693859</v>
+        <v>-0.005966631753075423</v>
       </c>
       <c r="D15" t="n">
-        <v>-4.512515250836611</v>
+        <v>1.00201201526747</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1437555555555553</v>
+        <v>3.305348067594794e-05</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0002840273095940926</v>
+        <v>-0.1522333165093374</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.004069023822329765</v>
+        <v>-0.1521779381983631</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.611581231930614e-05</v>
+        <v>0.326564248041594</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>[-0.01448207  0.01184732]</t>
+          <t>[-0.15908642 -1.83450183]</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>[[-5.24645188 -6.24645188]
- [-6.24645188 -5.24645188]]</t>
+          <t>[[-2309.31951308 -2310.31951308]
+ [-2310.31951308 -2309.31951308]]</t>
         </is>
       </c>
     </row>
@@ -1003,35 +1003,5770 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.996807291042137</v>
+        <v>-0.1490274391171399</v>
       </c>
       <c r="C16" t="n">
-        <v>2.755834877871529</v>
+        <v>-0.1581445699514385</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.51253136664893</v>
+        <v>1.328576263309064</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01375555555555528</v>
+        <v>0.0002061237523881871</v>
       </c>
       <c r="F16" t="n">
-        <v>0.00175087649002359</v>
+        <v>1.095003917089744</v>
       </c>
       <c r="G16" t="n">
-        <v>0.001556276977373372</v>
+        <v>1.09528193628248</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.896116341804088e-05</v>
+        <v>-1.31784473291562</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>[-0.01593096 -0.00178398]</t>
+          <t>[-0.47462871 -1.82342617]</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>[[7.28588574 6.28588574]
- [6.28588574 7.28588574]]</t>
+          <t>[[2312.47091846 2311.47091846]
+ [2311.47091846 2312.47091846]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9459764779726038</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9371373663310416</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.01073153039344451</v>
+      </c>
+      <c r="E17" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.008306672552808925</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.00819337852135682</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0007675120594523768</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[ 1.65977528 -1.76782233]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[[-2309.57033734 -2310.57033734]
+ [-2310.57033734 -2309.57033734]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9376698054197948</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9289439878096848</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.01149904245289689</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0002469801013966344</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.0711681920995465</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.07199944479123688</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.005188516727630756</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[ 1.62050313 -1.74516352]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[[2325.50782042 2324.50782042]
+ [2324.50782042 2325.50782042]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.008837997519341</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1.000943432600922</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.006310525725266135</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.0008322978778852479</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.03284228389217048</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.03548524743670201</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-0.001815348167700941</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[ 1.59658898 -1.57891298]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[[-2321.71847563 -2322.71847563]
+ [-2322.71847563 -2321.71847563]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.041680281411512</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.036428680037624</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.004495177557565194</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0002061237523881871</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04426363399891131</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.04381345949440796</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.002183133848769354</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[ 1.13368084 -1.05032027]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[[2563.47459198 2562.47459198]
+ [2562.47459198 2563.47459198]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9974166474126005</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9926152205432157</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.00231204370879584</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.001565435313742652</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0221465846779022</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.01914814354956329</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.00137539815340861</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[ 0.95511867 -0.96028537]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[-2552.29423062 -2553.29423062]
+ [-2553.29423062 -2552.29423062]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9752700627346983</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9734670769936524</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0009366455553872306</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.0240972435547111</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.02419129765289241</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.000644200518057432</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[ 0.31113727 -0.36059715]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[[3486.93007713 3485.93007713]
+ [3485.93007713 3486.93007713]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9993673062894094</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9976583746465448</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0002924450373297987</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.001647148011759547</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.007826439691077658</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.006702578628341782</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.0001866573410493671</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[ 0.34052094 -0.34178633]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[[-3484.88001274 -3485.88001274]
+ [-3485.88001274 -3484.88001274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9915408665983317</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9909557960182031</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0001057876962804316</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.007535176853786796</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.007556705573909528</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-7.317605778016133e-05</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[ 0.10009585 -0.11701412]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[[4498.49630068 4497.49630068]
+ [4497.49630068 4498.49630068]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9990760434521185</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9985125015921126</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3.261163850027029e-05</v>
+      </c>
+      <c r="E25" t="n">
+        <v>7.390982968439528e-05</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.0006224316888002734</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.0006059077545852443</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-2.974608080618345e-07</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[ 0.11086046 -0.11270837]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[[-4496.31123524 -4497.31123524]
+ [-4497.31123524 -4496.31123524]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9984536117633183</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9979065938375273</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3.231417769220846e-05</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.0025189339655316</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.002557950905298867</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-5.561832317403265e-06</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[ 0.10631081 -0.10940359]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[[4538.29328438 4537.29328438]
+ [4537.29328438 4538.29328438]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.00097254572885</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.000464544742826</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.675234537480519e-05</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.000288006064762758</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0002947868371154794</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-4.118429119105718e-08</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[ 0.10354529 -0.1016002 ]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[[-4531.88748918 -4532.88748918]
+ [-4532.88748918 -4531.88748918]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.001260551793613</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.000759331579942</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.671116108361414e-05</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.002091872358396696</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.002055153448914271</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-4.443921042898198e-06</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[ 0.10276515 -0.10024404]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[[4547.67819611 4546.67819611]
+ [4546.67819611 4547.67819611]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9991686794352159</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.9987041781310274</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.226724004071594e-05</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0002517684151247535</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0002456820172483942</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-7.973566939784371e-08</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[ 0.09123762 -0.09290026]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[[-4525.39108004 -4526.39108004]
+ [-4526.39108004 -4525.39108004]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9989169110200912</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.998458496113779</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.218750437131809e-05</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.001770652279708629</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.001803426453718338</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-3.59775778059027e-06</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[ 0.0895168  -0.09168298]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[[4561.56129615 4560.56129615]
+ [4560.56129615 4561.56129615]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1.0006875632998</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.000261922567497</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.858974659072782e-05</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.390982968439528e-05</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.0004563787382034779</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.0004690639871887115</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-2.279200842415022e-07</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[ 0.08650327 -0.08512815]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[[-4552.25904521 -4553.25904521]
+ [-4553.25904521 -4552.25904521]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.001143942038003</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.000730986554686</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.836182650648632e-05</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.001908195945248381</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.001877905106485001</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-3.134519452595871e-06</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[ 0.08487898 -0.0825911 ]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[[4575.11038703 4574.11038703]
+ [4574.11038703 4575.11038703]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9992357460927549</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9988530814482011</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.522730705389045e-05</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.0002326963712320218</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.0002276875343618645</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.899371158602293e-08</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[ 0.07500442 -0.07653293]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[[-4555.72617262 -4556.72617262]
+ [-4556.72617262 -4555.72617262]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9990030497215229</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9986253939138392</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.525630076547647e-05</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.001640230256572228</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.001667192730234301</v>
+      </c>
+      <c r="H34" t="n">
+        <v>-2.543910182539803e-06</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[ 0.07353726 -0.07553116]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[[4585.95221369 4584.95221369]
+ [4584.95221369 4585.95221369]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.000643279978095</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.000292586644074</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.271239058293667e-05</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0001923928232649974</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.0001970720026853723</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-4.146203356349986e-08</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[ 0.07142523 -0.07013867]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[[-4578.71480306 -4579.71480306]
+ [-4579.71480306 -4578.71480306]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.00083567280136</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.000489658646759</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.267092854937317e-05</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.001401800017189703</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.00137646384900536</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-2.066991427631464e-06</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[ 0.07087418 -0.06920283]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[[4595.68661937 4594.68661937]
+ [4594.68661937 4595.68661937]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.9994338727841704</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.9991131947977535</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.060393712174171e-05</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.0001732437319622582</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.0001690413474614294</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-4.158706249012082e-08</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[ 0.06300334 -0.0641356 ]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[[-4572.45306518 -4573.45306518]
+ [-4573.45306518 -4572.45306518]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.9992606290522081</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.9989441534502921</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.056235005925158e-05</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.001221247180468454</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.001243876490125029</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-1.695581008168573e-06</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[ 0.06181638 -0.06329512]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[[4608.81609374 4607.81609374]
+ [4607.81609374 4608.81609374]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.000481876232677</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.000188029940417</v>
+      </c>
+      <c r="D39" t="n">
+        <v>8.866769051083012e-06</v>
+      </c>
+      <c r="E39" t="n">
+        <v>7.390982968439528e-05</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0003232817903802143</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0003320402729263261</v>
+      </c>
+      <c r="H39" t="n">
+        <v>-9.098368427365025e-08</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[ 0.05973301 -0.05876926]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[[-4599.49215257 -4600.49215257]
+ [-4600.49215257 -4599.49215257]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.000805158023057</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.000520070213343</v>
+      </c>
+      <c r="D40" t="n">
+        <v>8.775785366809362e-06</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.001356260588777469</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.00133534343492514</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-1.493457787060253e-06</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[ 0.05862788 -0.05701756]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[[4621.07447313 4620.07447313]
+ [4620.07447313 4621.07447313]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.9994488974342793</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9991847267784183</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7.282327579749108e-06</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.0001694208630100835</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.0001659645908586027</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.402541890633679e-08</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[ 0.05173193 -0.05283413]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[[-4602.43242508 -4603.43242508]
+ [-4603.43242508 -4602.43242508]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9992794765712693</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.9990187621875597</v>
+      </c>
+      <c r="D42" t="n">
+        <v>7.316352998655445e-06</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.001197443064160031</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.001216044909184477</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1.227052521142406e-06</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[ 0.05070183 -0.05214288]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[[4630.30780219 4629.30780219]
+ [4629.30780219 4630.30780219]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.000476919635429</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.000234807096744</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.089300477513039e-06</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0001441793004799408</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.0001474118930353541</v>
+      </c>
+      <c r="H43" t="n">
+        <v>2.826276967359295e-09</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[ 0.04937635 -0.04842251]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[[-4623.86397807 -4624.86397807]
+ [-4624.86397807 -4623.86397807]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.000621098935909</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.00038221898978</v>
+      </c>
+      <c r="D44" t="n">
+        <v>6.092126754480398e-06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.00105071569754478</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.001033208230935001</v>
+      </c>
+      <c r="H44" t="n">
+        <v>-1.006978723722383e-06</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[ 0.04901819 -0.04777599]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[[4638.03293266 4637.03293266]
+ [4637.03293266 4638.03293266]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.9995703832383644</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.9993490107588445</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5.085148030758015e-06</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.0001325981502103835</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.0001296996984794241</v>
+      </c>
+      <c r="H45" t="n">
+        <v>4.02765817712861e-09</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[ 0.04341526 -0.0442745 ]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[[-4617.31277421 -4618.31277421]
+ [-4618.31277421 -4617.31277421]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.9994377850881541</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.9992193110603651</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5.089175688935143e-06</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0009374548599568877</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0009530579141736606</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-8.327074784640545e-07</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[ 0.04257038 -0.04369481]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[[4648.25456701 4647.25456701]
+ [4647.25456701 4648.25456701]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.000375239948111</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.000172368974539</v>
+      </c>
+      <c r="D47" t="n">
+        <v>4.256468210471089e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0001137791149778966</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.0001164861576725684</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-1.076864397284851e-08</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[ 0.04132467 -0.04057419]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[[-4640.82721169 -4641.82721169]
+ [-4641.82721169 -4640.82721169]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.000489019063089</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.000288855132211</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4.24569956649824e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.0008310661317667556</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.0008164075194592169</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-6.874810475321723e-07</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[ 0.04101082 -0.04003279]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[[4656.98939999 4655.98939999]
+ [4655.98939999 4656.98939999]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9996579529313221</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.9994724476127521</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.558218518966068e-06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.0001060212898563728</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.0001035912629636648</v>
+      </c>
+      <c r="H49" t="n">
+        <v>-5.797022774698037e-09</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[ 0.03641697 -0.03710106]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[[-4634.54786769 -4635.54786769]
+ [-4635.54786769 -4634.54786769]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.9995519316414657</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.9993688563497884</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.55242149619137e-06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0007499721380356261</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0007630554121218491</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-5.715469996466756e-07</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[ 0.03571892 -0.03661506]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[[4667.82980462 4666.82980462]
+ [4666.82980462 4667.82980462]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.000301903779501</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.00013191176191</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.980874496544694e-06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F51" t="n">
+        <v>9.187288497036761e-05</v>
+      </c>
+      <c r="G51" t="n">
+        <v>9.414037405908182e-05</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-1.266268892922825e-08</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[ 0.03460221 -0.0339984 ]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[[-4659.63138638 -4660.63138638]
+ [-4660.63138638 -4659.63138638]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.000393776664472</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.000226052135969</v>
+      </c>
+      <c r="D52" t="n">
+        <v>2.968211807615466e-06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.0006723167912880967</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.0006600395991914754</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-4.742397658055239e-07</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[ 0.03433246 -0.03354491]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[[4677.16610176 4676.16610176]
+ [4676.16610176 4677.16610176]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.9997214598731836</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.9995660125367779</v>
+      </c>
+      <c r="D53" t="n">
+        <v>2.493972041809942e-06</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F53" t="n">
+        <v>-8.671616260558235e-05</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-8.467934583500369e-05</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-7.081131375480131e-09</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[ 0.03053239 -0.03108947]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[[-4653.58678192 -4654.58678192]
+ [-4654.58678192 -4653.58678192]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.999634743710578</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.9994813331909429</v>
+      </c>
+      <c r="D54" t="n">
+        <v>2.486890910434462e-06</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0006138973643431411</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.0006248643712001289</v>
+      </c>
+      <c r="H54" t="n">
+        <v>-3.960530930387385e-07</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[ 0.02995159 -0.0306821 ]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[[4688.15897487 4687.15897487]
+ [4687.15897487 4688.15897487]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.000248641074921</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.000106197562143</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.090837817395723e-06</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F55" t="n">
+        <v>7.597544638437981e-05</v>
+      </c>
+      <c r="G55" t="n">
+        <v>7.787518484891898e-05</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-1.020668165981655e-08</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[ 0.02898598 -0.0284887 ]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[[-4679.53625152 -4680.53625152]
+ [-4680.53625152 -4679.53625152]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.000324616521306</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.000184072746992</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.080631135735907e-06</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F56" t="n">
+        <v>-0.0005567162170502238</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-0.0005464305507216771</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-3.300433973863953e-07</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[ 0.02875799 -0.02810875]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[[4697.58703881 4696.58703881]
+ [4696.58703881 4697.58703881]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.9997679003042553</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.9996376421962703</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.750587738349512e-06</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-7.257016594763854e-05</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-7.08633158111871e-05</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-5.22142427996892e-09</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[ 0.02558742 -0.02605162]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[[-4673.6083873 -4674.6083873]
+ [-4674.6083873 -4673.6083873]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.9996953301383077</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.9995667788804591</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.745366314069543e-06</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0005142612631879873</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.0005234516378643805</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-2.76735715323508e-07</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[ 0.02510091 -0.02571025]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[[4708.2528076 4707.2528076]
+ [4707.2528076 4708.2528076]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.000209591401496</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.000090230518323</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.468630598746035e-06</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F59" t="n">
+        <v>6.432634189001973e-05</v>
+      </c>
+      <c r="G59" t="n">
+        <v>6.591831439894946e-05</v>
+      </c>
+      <c r="H59" t="n">
+        <v>-6.648036722838693e-09</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[ 0.02429136 -0.02387218]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[[-4699.62341397 -4700.62341397]
+ [-4700.62341397 -4699.62341397]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.000273917743386</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.000156148832722</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.461982562023196e-06</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-0.0004716880189663542</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-0.0004630684371731419</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-2.315118808412148e-07</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[ 0.02410162 -0.02355378]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[[4717.26499409 4716.26499409]
+ [4716.26499409 4717.26499409]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9998022297244193</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.9996930803955493</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.230470681181981e-06</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F61" t="n">
+        <v>-6.208644387684092e-05</v>
+      </c>
+      <c r="G61" t="n">
+        <v>-6.065641177577241e-05</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-2.60047689388532e-09</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[ 0.02143433 -0.02182987]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>[[-4693.66135436 -4694.66135436]
+ [-4694.66135436 -4693.66135436]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.9997401432805425</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.9996324239837735</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.227870204288096e-06</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.0004404701161230262</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.0004481695249012319</v>
+      </c>
+      <c r="H62" t="n">
+        <v>-1.948512058638431e-07</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[ 0.02102415 -0.02154386]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>[[4727.19589504 4726.19589504]
+ [4726.19589504 4727.19589504]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.000180613396666</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.000080593508675</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.033018998424253e-06</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F63" t="n">
+        <v>5.568228172725398e-05</v>
+      </c>
+      <c r="G63" t="n">
+        <v>5.701662370416472e-05</v>
+      </c>
+      <c r="H63" t="n">
+        <v>-3.299651591225967e-09</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[ 0.0203652  -0.02000398]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>[[-4718.96258274 -4719.96258274]
+ [-4719.96258274 -4718.96258274]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.000236295678393</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.000137610132379</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.029719346833027e-06</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F64" t="n">
+        <v>-0.0004083462059654153</v>
+      </c>
+      <c r="G64" t="n">
+        <v>-0.0004011209010489347</v>
+      </c>
+      <c r="H64" t="n">
+        <v>-1.636203926354157e-07</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[ 0.0202097  -0.01973711]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>[[4735.38414842 4734.38414842]
+ [4734.38414842 4735.38414842]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.9998279494724274</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.99973648923133</v>
+      </c>
+      <c r="D65" t="n">
+        <v>8.660989541976111e-07</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F65" t="n">
+        <v>-5.420723497528979e-05</v>
+      </c>
+      <c r="G65" t="n">
+        <v>-5.300937698815567e-05</v>
+      </c>
+      <c r="H65" t="n">
+        <v>-1.765986098437503e-10</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[ 0.01794795 -0.01829205]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>[[-4712.84120568 -4713.84120568]
+ [-4713.84120568 -4712.84120568]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.9997737422374521</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.9996834798543418</v>
+      </c>
+      <c r="D66" t="n">
+        <v>8.659223555877673e-07</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0003850457774153826</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.0003914943457760112</v>
+      </c>
+      <c r="H66" t="n">
+        <v>-1.382331676334409e-07</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[ 0.01759996 -0.01805248]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>[[4744.29969298 4743.29969298]
+ [4743.29969298 4744.29969298]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1.000158788014867</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.000074974200118</v>
+      </c>
+      <c r="D67" t="n">
+        <v>7.276891879543264e-07</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4.916783247743695e-05</v>
+      </c>
+      <c r="G67" t="n">
+        <v>5.028646479310339e-05</v>
+      </c>
+      <c r="H67" t="n">
+        <v>-5.942337304959144e-10</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[ 0.01708034 -0.01676276]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>[[-4736.77551003 -4737.77551003]
+ [-4737.77551003 -4736.77551003]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1.000207955847345</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.000125260664911</v>
+      </c>
+      <c r="D68" t="n">
+        <v>7.270949542238305e-07</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F68" t="n">
+        <v>-0.0003604270482445715</v>
+      </c>
+      <c r="G68" t="n">
+        <v>-0.000354368886065104</v>
+      </c>
+      <c r="H68" t="n">
+        <v>-1.165241997710121e-07</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[ 0.01695495 -0.01653904]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>[[4751.41070326 4750.41070326]
+ [4750.41070326 4751.41070326]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.9998475287991003</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.9997708917788458</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.105707544528183e-07</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F69" t="n">
+        <v>-4.818662794403572e-05</v>
+      </c>
+      <c r="G69" t="n">
+        <v>-4.7183459244593e-05</v>
+      </c>
+      <c r="H69" t="n">
+        <v>1.740759928860209e-09</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[ 0.01502246 -0.0153274 ]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>[[-4730.43703627 -4731.43703627]
+ [-4731.43703627 -4730.43703627]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.9997993421711563</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.9997237083196012</v>
+      </c>
+      <c r="D70" t="n">
+        <v>6.123115143816785e-07</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0003427189950840903</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.0003481184607506682</v>
+      </c>
+      <c r="H70" t="n">
+        <v>-9.88432433147663e-08</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[ 0.01472545 -0.01512677]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>[[4759.17119424 4758.17119424]
+ [4758.17119424 4759.17119424]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1.00014206116624</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.000071826780352</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.134682710669122e-07</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4.416790690719985e-05</v>
+      </c>
+      <c r="G71" t="n">
+        <v>4.510589450612557e-05</v>
+      </c>
+      <c r="H71" t="n">
+        <v>1.412078209090273e-09</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[ 0.014331   -0.01404688]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>[[-4752.53991871 -4753.53991871]
+ [-4753.53991871 -4752.53991871]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.000186229073148</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1.000116932674858</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5.148803492760025e-07</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F72" t="n">
+        <v>-0.0003235211439911456</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.0003184402334557301</v>
+      </c>
+      <c r="H72" t="n">
+        <v>-8.366834980916248e-08</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[ 0.01423174 -0.01385928]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>[[4765.10990107 4764.10990107]
+ [4764.10990107 4765.10990107]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.9998627079291564</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.9997984924414023</v>
+      </c>
+      <c r="D73" t="n">
+        <v>4.3121199946684e-07</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F73" t="n">
+        <v>-4.349906099487821e-05</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-4.265911880307893e-05</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3.119411417131299e-09</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[ 0.01256851 -0.0128431 ]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>[[-4746.00419395 -4747.00419395]
+ [-4747.00419395 -4746.00419395]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.9998192088681616</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.9997558333225992</v>
+      </c>
+      <c r="D74" t="n">
+        <v>4.343314108839713e-07</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.0002398047550341564</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.0002433035836538755</v>
+      </c>
+      <c r="H74" t="n">
+        <v>-7.232667997849456e-08</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[ 0.01231353 -0.01267511]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>[[4771.69644972 4770.69644972]
+ [4770.69644972 4771.69644972]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1.000059013623196</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.9999991369062531</v>
+      </c>
+      <c r="D75" t="n">
+        <v>3.620047309054768e-07</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0003130870627485304</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0001723681955181355</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.0001799037984959728</v>
+      </c>
+      <c r="H75" t="n">
+        <v>-3.450796376659952e-08</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>[ 0.01209337 -0.01197534]</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>[[-4766.01237341 -4767.01237341]
+ [-4767.01237341 -4766.01237341]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1.000231381818714</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.000179040704749</v>
+      </c>
+      <c r="D76" t="n">
+        <v>3.274967671388773e-07</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F76" t="n">
+        <v>-0.0003143197161058486</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-0.0003113234674997356</v>
+      </c>
+      <c r="H76" t="n">
+        <v>-7.712649858844258e-08</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[ 0.01093099 -0.01046822]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>[[4828.39010017 4827.39010017]
+ [4827.39010017 4828.39010017]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.999917062102608</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.9998677172372493</v>
+      </c>
+      <c r="D77" t="n">
+        <v>2.503702685504347e-07</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-2.674196144714092e-05</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-2.609503639805499e-05</v>
+      </c>
+      <c r="H77" t="n">
+        <v>-1.191658075779067e-09</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[ 0.0097031  -0.00986897]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>[[-4817.95626629 -4818.95626629]
+ [-4818.95626629 -4817.95626629]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.9998903201411609</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.9998416222008513</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.491786104746556e-07</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.0001908332940152579</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.0001943168774853898</v>
+      </c>
+      <c r="H78" t="n">
+        <v>-3.815892399314624e-08</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[ 0.00952023 -0.00973959]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>[[4854.15768183 4853.15768183]
+ [4853.15768183 4854.15768183]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1.000081153435176</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.000035939078337</v>
+      </c>
+      <c r="D79" t="n">
+        <v>2.110196864815094e-07</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.569427676468727e-05</v>
+      </c>
+      <c r="G79" t="n">
+        <v>2.629743831961129e-05</v>
+      </c>
+      <c r="H79" t="n">
+        <v>-5.873784630011249e-10</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>[ 0.00920518 -0.00904287]</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>[[-4845.1277232 -4846.1277232]
+ [-4846.1277232 -4845.1277232]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1.000106847711941</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.000062236516656</v>
+      </c>
+      <c r="D80" t="n">
+        <v>2.104323080185082e-07</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.0001894928174467347</v>
+      </c>
+      <c r="G80" t="n">
+        <v>-0.0001862265788954431</v>
+      </c>
+      <c r="H80" t="n">
+        <v>-3.266154982701619e-08</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[ 0.00913593 -0.00892224]</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>[[4860.81391179 4859.81391179]
+ [4859.81391179 4860.81391179]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.9999173548944941</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.9998760099377608</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.777707581914921e-07</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-2.671127265685413e-05</v>
+      </c>
+      <c r="G81" t="n">
+        <v>-2.617009818228766e-05</v>
+      </c>
+      <c r="H81" t="n">
+        <v>6.829239147700319e-10</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[ 0.0081037  -0.00826899]</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>[[-4839.08782765 -4840.08782765]
+ [-4840.08782765 -4839.08782765]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.9998906436218372</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9998498398395785</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.784536821062621e-07</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.000147891728399574</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.0001501463908030187</v>
+      </c>
+      <c r="H82" t="n">
+        <v>-2.836524472705742e-08</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>[ 0.00794204 -0.00816076]</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>[[4866.67344625 4865.67344625]
+ [4865.67344625 4866.67344625]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1.000038535350237</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.9999999862303816</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.500884373792047e-07</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.000272230713740083</v>
+      </c>
+      <c r="F83" t="n">
+        <v>9.987872342653858e-05</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.0001040974062030964</v>
+      </c>
+      <c r="H83" t="n">
+        <v>-1.30720905898211e-08</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>[ 0.00778689 -0.00770982]</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>[[-4860.46980357 -4861.46980357]
+ [-4861.46980357 -4860.46980357]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1.000138414073663</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1.000104083636585</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.370163467893836e-07</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.0001915970941418488</v>
+      </c>
+      <c r="G84" t="n">
+        <v>-0.0001896355984990494</v>
+      </c>
+      <c r="H84" t="n">
+        <v>-2.941307615423141e-08</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[ 0.00714292 -0.00686609]</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>[[4918.2876792 4917.2876792]
+ [4917.2876792 4918.2876792]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.9999468169795215</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.9999144480380856</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.076032706351522e-07</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-1.746591066154046e-05</v>
+      </c>
+      <c r="G85" t="n">
+        <v>-1.704146395731243e-05</v>
+      </c>
+      <c r="H85" t="n">
+        <v>-5.669247978744604e-10</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>[ 0.00636742 -0.00647379]</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>[[-4907.01605383 -4908.01605383]
+ [-4908.01605383 -4907.01605383]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.9999293510688599</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.9998974065741283</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.070363458372777e-07</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.0001251847366020575</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.0001274703400419019</v>
+      </c>
+      <c r="H86" t="n">
+        <v>-1.609720849397174e-08</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[ 0.0062476 -0.0063889]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>[[4943.47442965 4942.47442965]
+ [4942.47442965 4943.47442965]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.000054535805462</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.00002487691417</v>
+      </c>
+      <c r="D87" t="n">
+        <v>9.093913734330596e-08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.75935625907897e-05</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.798929962326667e-05</v>
+      </c>
+      <c r="H87" t="n">
+        <v>-1.032718870823472e-10</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[ 0.00604085 -0.00593178]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>[[-4934.44090535 -4935.44090535]
+ [-4935.44090535 -4934.44090535]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.000072129368053</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.000042866213793</v>
+      </c>
+      <c r="D88" t="n">
+        <v>9.083586545622361e-08</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.0001301829623824302</v>
+      </c>
+      <c r="G88" t="n">
+        <v>-0.0001280397024124857</v>
+      </c>
+      <c r="H88" t="n">
+        <v>-1.391677901489294e-08</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[ 0.00599689 -0.00585263]</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>[[4948.71044705 4947.71044705]
+ [4947.71044705 4948.71044705]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.9999419464056704</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.999914826511381</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.691908644133067e-08</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-1.909296152990958e-05</v>
+      </c>
+      <c r="G89" t="n">
+        <v>-1.873823651588058e-05</v>
+      </c>
+      <c r="H89" t="n">
+        <v>6.69933273504729e-10</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[ 0.00530787 -0.00542398]</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>[[-4928.32944679 -4929.32944679]
+ [-4929.32944679 -4928.32944679]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.9999228534441404</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.9998960882748651</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.75890197148354e-08</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.0001062448948425665</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.000107722320461745</v>
+      </c>
+      <c r="H90" t="n">
+        <v>-1.279530846121231e-08</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[ 0.00519874 -0.00535303]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>[[4952.61339804 4951.61339804]
+ [4951.61339804 4952.61339804]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1.000029098338983</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.000003810595327</v>
+      </c>
+      <c r="D91" t="n">
+        <v>6.479371125362309e-08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0002061237523881871</v>
+      </c>
+      <c r="F91" t="n">
+        <v>5.830555879882127e-05</v>
+      </c>
+      <c r="G91" t="n">
+        <v>6.040251636130201e-05</v>
+      </c>
+      <c r="H91" t="n">
+        <v>-3.373013941807431e-09</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>[ 0.00511575 -0.00505755]</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>[[-4947.43553557 -4948.43553557]
+ [-4948.43553557 -4947.43553557]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1.000087403897782</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.000064213111688</v>
+      </c>
+      <c r="D92" t="n">
+        <v>6.142069731181566e-08</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.0001227349532527677</v>
+      </c>
+      <c r="G92" t="n">
+        <v>-0.0001214116374460561</v>
+      </c>
+      <c r="H92" t="n">
+        <v>-1.235378815590935e-08</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>[ 0.00481297 -0.00463816]</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>[[4987.96375094 4986.96375094]
+ [4986.96375094 4987.96375094]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.9999646689445291</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.9999428014742421</v>
+      </c>
+      <c r="D93" t="n">
+        <v>4.906690915590631e-08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-1.176669053970514e-05</v>
+      </c>
+      <c r="G93" t="n">
+        <v>-1.147990776573238e-05</v>
+      </c>
+      <c r="H93" t="n">
+        <v>-2.761041231964906e-10</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>[ 0.00430283 -0.00437349]</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>[[-4976.0183382 -4977.0183382]
+ [-4977.0183382 -4976.0183382]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.9999529022539894</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.9999313215664763</v>
+      </c>
+      <c r="D94" t="n">
+        <v>4.879080503270982e-08</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F94" t="n">
+        <v>8.462189799229858e-05</v>
+      </c>
+      <c r="G94" t="n">
+        <v>8.616620724388735e-05</v>
+      </c>
+      <c r="H94" t="n">
+        <v>-7.237097667283697e-09</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>[ 0.00422194 -0.00431614]</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>[[5012.64270255 5011.64270255]
+ [5011.64270255 5012.64270255]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1.000037524151982</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.00001748777372</v>
+      </c>
+      <c r="D95" t="n">
+        <v>4.155370736542613e-08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.227955851401674e-05</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.254694793839661e-05</v>
+      </c>
+      <c r="H95" t="n">
+        <v>7.994177625628612e-12</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[ 0.00408232 -0.00400728]</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>[[-5003.61790312 -5004.61790312]
+ [-5004.61790312 -5003.61790312]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1.000049803710496</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.000030034721659</v>
+      </c>
+      <c r="D96" t="n">
+        <v>4.156170154305175e-08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-7.052285437691985e-05</v>
+      </c>
+      <c r="G96" t="n">
+        <v>-6.940171151392782e-05</v>
+      </c>
+      <c r="H96" t="n">
+        <v>-6.358202672685861e-09</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>[ 0.00405341 -0.0039538 ]</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>[[5016.89997308 5015.89997308]
+ [5015.89997308 5016.89997308]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.9999792808561188</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.9999606330101447</v>
+      </c>
+      <c r="D97" t="n">
+        <v>3.520349887036589e-08</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-3.813100785732271e-05</v>
+      </c>
+      <c r="G97" t="n">
+        <v>-3.678934514794729e-05</v>
+      </c>
+      <c r="H97" t="n">
+        <v>-1.789760591658828e-09</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>[ 0.00368813 -0.00372957]</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>[[-4997.47338527 -4998.47338527]
+ [-4998.47338527 -4997.47338527]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.9999411498482614</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.9999238436649968</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.341373827870707e-08</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F98" t="n">
+        <v>8.297816250635304e-05</v>
+      </c>
+      <c r="G98" t="n">
+        <v>8.393094498593268e-05</v>
+      </c>
+      <c r="H98" t="n">
+        <v>-6.088205651297812e-09</v>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>[ 0.00334354 -0.00346124]</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>[[5064.48413682 5063.48413682]
+ [5063.48413682 5064.48413682]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1.000024128010768</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.000007774609983</v>
+      </c>
+      <c r="D99" t="n">
+        <v>2.732553262740925e-08</v>
+      </c>
+      <c r="E99" t="n">
+        <v>7.390982968439528e-05</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.780807870832568e-05</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.829511612938539e-05</v>
+      </c>
+      <c r="H99" t="n">
+        <v>-3.927483868964679e-10</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[ 0.00331894 -0.00327068]</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>[[-5060.79818358 -5061.79818358]
+ [-5061.79818358 -5060.79818358]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.000041936089476</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.000026069726112</v>
+      </c>
+      <c r="D100" t="n">
+        <v>2.693278424051279e-08</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-6.013465084842018e-05</v>
+      </c>
+      <c r="G100" t="n">
+        <v>-5.923428442156098e-05</v>
+      </c>
+      <c r="H100" t="n">
+        <v>-4.203490172130921e-09</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>[ 0.00325714 -0.00317327]</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>[[5082.83488865 5081.83488865]
+ [5081.83488865 5082.83488865]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.9999818014386277</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.9999668354416905</v>
+      </c>
+      <c r="D101" t="n">
+        <v>2.272929406838187e-08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-2.623095743881088e-05</v>
+      </c>
+      <c r="G101" t="n">
+        <v>-2.5397857300824e-05</v>
+      </c>
+      <c r="H101" t="n">
+        <v>-7.814347329375049e-10</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>[ 0.0029568 -0.0029932]</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>[[-5064.91446263 -5065.91446263]
+ [-5065.91446263 -5064.91446263]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.9999555704811889</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.9999414375843897</v>
+      </c>
+      <c r="D102" t="n">
+        <v>2.194785933544436e-08</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F102" t="n">
+        <v>6.332160105326778e-05</v>
+      </c>
+      <c r="G102" t="n">
+        <v>6.410069643913996e-05</v>
+      </c>
+      <c r="H102" t="n">
+        <v>-3.758547345365957e-09</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>[ 0.00273772 -0.00282658]</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>[[5121.25161132 5120.25161132]
+ [5120.25161132 5121.25161132]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.000018892082242</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.000005538280829</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.81893119900784e-08</v>
+      </c>
+      <c r="E103" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.890742327992356e-05</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.944083751470593e-05</v>
+      </c>
+      <c r="H103" t="n">
+        <v>-3.242766316082212e-10</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>[ 0.00270854 -0.00267076]</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>[[-5117.11250973 -5118.11250973]
+ [-5118.11250973 -5117.11250973]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.000037799505522</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.000024979118344</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.786503535847018e-08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-5.477429304234782e-05</v>
+      </c>
+      <c r="G104" t="n">
+        <v>-5.404568012234989e-05</v>
+      </c>
+      <c r="H104" t="n">
+        <v>-2.955791475167451e-09</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>[ 0.00263968 -0.00256408]</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>[[5140.72801724 5139.72801724]
+ [5139.72801724 5140.72801724]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.9999830252124797</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.9999709334382212</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.490924388330273e-08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.390982968439528e-05</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-1.303932101071048e-05</v>
+      </c>
+      <c r="G105" t="n">
+        <v>-1.268434982759636e-05</v>
+      </c>
+      <c r="H105" t="n">
+        <v>-2.331425292649985e-10</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>[ 0.00238441 -0.00241835]</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>[[-5125.35603131 -5126.35603131]
+ [-5126.35603131 -5125.35603131]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.999969985891469</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.9999582490883936</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.467610135403773e-08</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.31170022494598e-05</v>
+      </c>
+      <c r="G106" t="n">
+        <v>4.376593709265464e-05</v>
+      </c>
+      <c r="H106" t="n">
+        <v>-2.210333336712616e-09</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>[ 0.00228733 -0.00234736]</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>[[5169.05265584 5168.05265584]
+ [5168.05265584 5169.05265584]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.000013102893718</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.000002015025486</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.246576801732512e-08</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F107" t="n">
+        <v>2.407115617653055e-05</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2.487809511708683e-05</v>
+      </c>
+      <c r="H107" t="n">
+        <v>-5.14107321691182e-10</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>[ 0.00224378 -0.00221757]</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>[[-5163.00694546 -5164.00694546]
+ [-5164.00694546 -5163.00694546]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.000037174049895</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.000026893120603</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.195166069563394e-08</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-5.439561135689441e-05</v>
+      </c>
+      <c r="G108" t="n">
+        <v>-5.380940028321124e-05</v>
+      </c>
+      <c r="H108" t="n">
+        <v>-2.256322383826348e-09</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[ 0.00213053 -0.00205619]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>[[5197.67555605 5196.67555605]
+ [5196.67555605 5197.67555605]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.9999827784385381</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9999730837203201</v>
+      </c>
+      <c r="D109" t="n">
+        <v>9.695338311807587e-09</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-5.967868357714678e-06</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-5.840829150338678e-06</v>
+      </c>
+      <c r="H109" t="n">
+        <v>-3.540491435640279e-12</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>[ 0.0019045  -0.00193894]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>[[-5185.73607199 -5186.73607199]
+ [-5186.73607199 -5185.73607199]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.9999768105701804</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9999672428911698</v>
+      </c>
+      <c r="D110" t="n">
+        <v>9.691797820371946e-09</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3.360023094389764e-05</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3.412959141002592e-05</v>
+      </c>
+      <c r="H110" t="n">
+        <v>-1.41429282916359e-09</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>[ 0.00186716 -0.00191354]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>[[5215.44526764 5214.44526764]
+ [5214.44526764 5215.44526764]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.000010410801124</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.00000137248258</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.277504991208356e-09</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.928979223508875e-05</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.994747392597418e-05</v>
+      </c>
+      <c r="H111" t="n">
+        <v>-3.718723381172294e-10</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>[ 0.00182849 -0.00180766]</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>[[-5208.81381536 -5209.81381536]
+ [-5209.81381536 -5208.81381536]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.000029700593359</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.000021319956506</v>
+      </c>
+      <c r="D112" t="n">
+        <v>7.905632653091127e-09</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-4.38566130498419e-05</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-4.337892393468934e-05</v>
+      </c>
+      <c r="H112" t="n">
+        <v>-1.459581463951456e-09</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>[ 0.00173553 -0.00167613]</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>[[5244.80813943 5243.80813943]
+ [5243.80813943 5244.80813943]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.9999858439803095</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9999779410325711</v>
+      </c>
+      <c r="D113" t="n">
+        <v>6.446051189139671e-09</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-4.949085985472834e-06</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-4.845533824737736e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>2.011011512592216e-12</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>[ 0.00155228 -0.00158059]</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>[[-5232.72291371 -5233.72291371]
+ [-5233.72291371 -5232.72291371]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.9999808948943241</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9999730954987464</v>
+      </c>
+      <c r="D114" t="n">
+        <v>6.448062200652263e-09</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2.793188841931915e-05</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2.836335688460867e-05</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-9.415151136559003e-10</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>[ 0.00152167 -0.00155988]</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>[[5261.66788394 5260.66788394]
+ [5260.66788394 5261.66788394]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.000008826782743</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.000001458855631</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.506547086996363e-09</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.278369342494479e-05</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.319881862471561e-05</v>
+      </c>
+      <c r="H115" t="n">
+        <v>-2.053889631167063e-10</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>[ 0.00149124 -0.00147359]</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>[[-5255.29707254 -5256.29707254]
+ [-5256.29707254 -5255.29707254]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.000021610476168</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.000014657674256</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.301158123879657e-09</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-3.219343456206669e-05</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-3.179797929797612e-05</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-8.892796085762842e-10</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>[ 0.00143378 -0.00139056]</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>[[5287.59675423 5286.59675423]
+ [5286.59675423 5287.59675423]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.9999894170416063</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9999828596949577</v>
+      </c>
+      <c r="D117" t="n">
+        <v>4.411878515303373e-09</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-3.732845925474848e-06</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-3.646848280469683e-06</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-1.910046941473693e-11</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>[ 0.0012903  -0.00131147]</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>[[-5273.66954757 -5274.66954757]
+ [-5274.66954757 -5273.66954757]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.9999856841956808</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9999792128466772</v>
+      </c>
+      <c r="D118" t="n">
+        <v>4.392778045888636e-09</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F118" t="n">
+        <v>2.725025686134419e-05</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2.771327545814106e-05</v>
+      </c>
+      <c r="H118" t="n">
+        <v>-6.154745556450601e-10</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>[ 0.00126564 -0.00129427]</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>[[5307.2033717 5306.2033717]
+ [5306.2033717 5307.2033717]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.000012934452542</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.000006926122135</v>
+      </c>
+      <c r="D119" t="n">
+        <v>3.777303490243576e-09</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F119" t="n">
+        <v>4.491612209722717e-06</v>
+      </c>
+      <c r="G119" t="n">
+        <v>4.571905760197836e-06</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4.052633943872062e-11</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>[ 0.00122753 -0.00120167]</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>[[-5299.44738024 -5300.44738024]
+ [-5300.44738024 -5299.44738024]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.000017426064752</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.000011498027896</v>
+      </c>
+      <c r="D120" t="n">
+        <v>3.817829829682296e-09</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-2.606888303247068e-05</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-2.573199326993958e-05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-6.170389394522456e-10</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>[ 0.00122046 -0.00118561]</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>[[5308.09372285 5307.09372285]
+ [5307.09372285 5308.09372285]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.9999913571817194</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.9999857660346256</v>
+      </c>
+      <c r="D121" t="n">
+        <v>3.200790890230051e-09</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-3.061272839999241e-06</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-2.987921441488517e-06</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-1.91982078269475e-11</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>[ 0.00110094 -0.00111823]</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>[[-5293.26868312 -5294.26868312]
+ [-5294.26868312 -5293.26868312]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.9999882959088794</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.9999827781131841</v>
+      </c>
+      <c r="D122" t="n">
+        <v>3.181592682403103e-09</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F122" t="n">
+        <v>2.236256864318609e-05</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2.275754314517986e-05</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-4.436598415042091e-10</v>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>[ 0.00108015 -0.00110356]</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>[[5328.91942854 5327.91942854]
+ [5327.91942854 5328.91942854]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.000010658477523</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.000005535656329</v>
+      </c>
+      <c r="D123" t="n">
+        <v>2.737932840898894e-09</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F123" t="n">
+        <v>3.714958175748961e-06</v>
+      </c>
+      <c r="G123" t="n">
+        <v>3.783393603740137e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>2.334435927859472e-11</v>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>[ 0.00104588 -0.00102456]</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>[[-5320.50230232 -5321.50230232]
+ [-5321.50230232 -5320.50230232]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.000014373435698</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.000009319049933</v>
+      </c>
+      <c r="D124" t="n">
+        <v>2.761277200177489e-09</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-2.159391427791757e-05</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-2.130680968304155e-05</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-4.364449135118072e-10</v>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>[ 0.00103962 -0.00101088]</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>[[5329.72331492 5328.72331492]
+ [5328.72331492 5329.72331492]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.9999927795214204</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.99998801224025</v>
+      </c>
+      <c r="D125" t="n">
+        <v>2.324832286665681e-09</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-2.568186108220516e-06</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-2.505633337701596e-06</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-1.556739864795238e-11</v>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>[ 0.00093902 -0.00095346]</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>[[-5314.36006351 -5315.36006351]
+ [-5315.36006351 -5314.36006351]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.9999902113353122</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.9999855066069123</v>
+      </c>
+      <c r="D126" t="n">
+        <v>2.309264888017729e-09</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.877755420254257e-05</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.911439678892179e-05</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-3.206221053469409e-10</v>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>[ 0.00092137 -0.00094095]</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>[[5350.9393528 5349.9393528]
+ [5349.9393528 5350.9393528]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.000008988889515</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.000004621003701</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.988642782670788e-09</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F127" t="n">
+        <v>3.145634478007864e-06</v>
+      </c>
+      <c r="G127" t="n">
+        <v>3.203978238053296e-06</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1.58191608943717e-11</v>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[ 0.00089155 -0.00087358]</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>[[-5342.23955526 -5343.23955526]
+ [-5343.23955526 -5342.23955526]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.000012134523993</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.000007824981939</v>
+      </c>
+      <c r="D128" t="n">
+        <v>2.00446194356516e-09</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-1.830580437223173e-05</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-1.806104299828526e-05</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-3.141330448061898e-10</v>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[ 0.00088618 -0.00086191]</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>[[5351.59668174 5350.59668174]
+ [5350.59668174 5351.59668174]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.9999938287196205</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.999989763938941</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.69032889875897e-09</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-2.203820519630639e-06</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-2.150486424379316e-06</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-1.101621386731535e-11</v>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>[ 0.00080061 -0.00081296]</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>[[-5336.12358076 -5337.12358076]
+ [-5337.12358076 -5336.12358076]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.9999916248991009</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.9999876134525166</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.679312684891655e-09</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.613124298460722e-05</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.641843849886637e-05</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-2.321503416161392e-10</v>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>[ 0.00078554 -0.00080229]</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>[[5372.33452664 5371.33452664]
+ [5371.33452664 5372.33452664]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.000007756142085</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.000004031891015</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.447162343275516e-09</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.725574421713617e-06</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2.775326941151235e-06</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1.289799745610116e-11</v>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>[ 0.00076036 -0.00074485]</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>[[-5363.77347736 -5364.77347736]
+ [-5364.77347736 -5363.77347736]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.000010481716507</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.000006807217957</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.460060340731617e-09</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-1.587336079145185e-05</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-1.566462896052112e-05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-2.298366171662704e-10</v>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>[ 0.00075586 -0.0007349 ]</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>[[5372.81521949 5371.81521949]
+ [5371.81521949 5372.81521949]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.9999946083557157</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.9999911425889961</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.230223723565346e-09</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-1.932517607827755e-06</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-1.887051771731763e-06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>-6.734562765468359e-12</v>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>[ 0.00068237 -0.00069315]</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>[[-5357.66373508 -5358.66373508]
+ [-5358.66373508 -5357.66373508]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.9999926758381079</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9999892555372244</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.223489160799878e-09</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.0001808731400447385</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.416312944191311e-05</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.440793617779601e-05</v>
+      </c>
+      <c r="H134" t="n">
+        <v>-1.683413754867481e-10</v>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>[ 0.00066941 -0.00068406]</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>[[5392.30819063 5391.30819063]
+ [5391.30819063 5392.30819063]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.00000683896755</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.000003663473402</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.05514778531313e-09</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F135" t="n">
+        <v>2.413253176403174e-06</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2.455689733338318e-06</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1.206078971709375e-11</v>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>[ 0.00064878 -0.0006351 ]</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>[[-5384.26740363 -5385.26740363]
+ [-5385.26740363 -5384.26740363]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.000009252220726</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.000006119163136</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.067208575030224e-09</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-1.405964073397659e-05</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-1.388157753345887e-05</v>
+      </c>
+      <c r="H136" t="n">
+        <v>-1.708981032993644e-10</v>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>[ 0.00064512 -0.00062661]</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>[[5392.6161854 5391.6161854]
+ [5391.6161854 5392.6161854]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.9999951925799923</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.9999922375856021</v>
+      </c>
+      <c r="D137" t="n">
+        <v>8.963104717308592e-10</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-1.728734115524766e-06</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-1.689982779495836e-06</v>
+      </c>
+      <c r="H137" t="n">
+        <v>-3.141805918822948e-12</v>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>[ 0.00058138 -0.000591  ]</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>[[-5378.15737769 -5379.15737769]
+ [-5379.15737769 -5378.15737769]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.9999934638458767</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9999905476028226</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.931686658120363e-10</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F138" t="n">
+        <v>9.821041045965373e-06</v>
+      </c>
+      <c r="G138" t="n">
+        <v>9.982539900921239e-06</v>
+      </c>
+      <c r="H138" t="n">
+        <v>-1.235166234167648e-10</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>[ 0.00057018 -0.00058325]</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>[[5410.30152649 5409.30152649]
+ [5409.30152649 5410.30152649]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.000003284886923</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.000000530142723</v>
+      </c>
+      <c r="D139" t="n">
+        <v>7.696520423952715e-10</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4.893015665308198e-06</v>
+      </c>
+      <c r="G139" t="n">
+        <v>5.04821972113767e-06</v>
+      </c>
+      <c r="H139" t="n">
+        <v>-2.701305595902385e-11</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>[ 0.00055752 -0.00055095]</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>[[-5403.05805008 -5404.05805008]
+ [-5404.05805008 -5403.05805008]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.000008177902588</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.000005578362445</v>
+      </c>
+      <c r="D140" t="n">
+        <v>7.426389864362476e-10</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-1.251647143651891e-05</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1.236858964148713e-05</v>
+      </c>
+      <c r="H140" t="n">
+        <v>-1.227529410869985e-10</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>[ 0.00053626 -0.00051991]</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>[[5433.71219115 5432.71219115]
+ [5432.71219115 5433.71219115]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.9999956614311515</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.9999932097728031</v>
+      </c>
+      <c r="D141" t="n">
+        <v>6.198860453492491e-10</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-1.570836310915702e-06</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.538708783832554e-06</v>
+      </c>
+      <c r="H141" t="n">
+        <v>4.479634877041149e-13</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>[ 0.00048165 -0.00049033]</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>[[-5420.42219386 -5421.42219386]
+ [-5421.42219386 -5420.42219386]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.9999940905948406</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9999916710640193</v>
+      </c>
+      <c r="D142" t="n">
+        <v>6.203340088369532e-10</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F142" t="n">
+        <v>8.948417869802938e-06</v>
+      </c>
+      <c r="G142" t="n">
+        <v>9.082273014549003e-06</v>
+      </c>
+      <c r="H142" t="n">
+        <v>-8.866708076626815e-11</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>[ 0.00047209 -0.00048391]</t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>[[5448.39200099 5447.39200099]
+ [5447.39200099 5448.39200099]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.00000303901271</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.000000753337034</v>
+      </c>
+      <c r="D143" t="n">
+        <v>5.31666928070685e-10</v>
+      </c>
+      <c r="E143" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F143" t="n">
+        <v>3.234814992758572e-06</v>
+      </c>
+      <c r="G143" t="n">
+        <v>3.326077136600603e-06</v>
+      </c>
+      <c r="H143" t="n">
+        <v>-1.076093878847263e-11</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>[ 0.00046321 -0.00045714]</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>[[-5442.41980479 -5443.41980479]
+ [-5443.41980479 -5442.41980479]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.000006273827703</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.00000407941417</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5.209059892822124e-10</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-9.664629109562561e-06</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-9.539970330707526e-06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>-8.101998101307964e-11</v>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>[ 0.00045143 -0.00043888]</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>[[5466.03342106 5465.03342106]
+ [5465.03342106 5466.03342106]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.9999966091985936</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.9999945394438398</v>
+      </c>
+      <c r="D145" t="n">
+        <v>4.398860082691328e-10</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-1.235609042971042e-06</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-1.208468159097364e-06</v>
+      </c>
+      <c r="H145" t="n">
+        <v>-1.25519245778943e-12</v>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>[ 0.00040717 -0.00041395]</t>
+        </is>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>[[-5451.24301958 -5452.24301958]
+ [-5452.24301958 -5451.24301958]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.9999953735895506</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.9999933309756807</v>
+      </c>
+      <c r="D146" t="n">
+        <v>4.386308158113433e-10</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F146" t="n">
+        <v>7.045526001281388e-06</v>
+      </c>
+      <c r="G146" t="n">
+        <v>7.15863054689958e-06</v>
+      </c>
+      <c r="H146" t="n">
+        <v>-6.047807249555109e-11</v>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>[ 0.00039927 -0.00040852]</t>
+        </is>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>[[5482.40087167 5481.40087167]
+ [5481.40087167 5482.40087167]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.000002419115552</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.000000489606228</v>
+      </c>
+      <c r="D147" t="n">
+        <v>3.781527433157922e-10</v>
+      </c>
+      <c r="E147" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F147" t="n">
+        <v>2.588670127146031e-06</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2.66568228712849e-06</v>
+      </c>
+      <c r="H147" t="n">
+        <v>-9.90025152217085e-12</v>
+      </c>
+      <c r="I147" t="inlineStr">
+        <is>
+          <t>[ 0.00039074 -0.0003859 ]</t>
+        </is>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>[[-5475.50882216 -5476.50882216]
+ [-5476.50882216 -5475.50882216]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.000005007785679</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.000003155288515</v>
+      </c>
+      <c r="D148" t="n">
+        <v>3.682524917936214e-10</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-7.767715002660047e-06</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-7.662560371102245e-06</v>
+      </c>
+      <c r="H148" t="n">
+        <v>-5.531468923723829e-11</v>
+      </c>
+      <c r="I148" t="inlineStr">
+        <is>
+          <t>[ 0.00038052 -0.0003705 ]</t>
+        </is>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>[[5502.08505299 5501.08505299]
+ [5501.08505299 5502.08505299]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.9999972400706764</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9999954927281436</v>
+      </c>
+      <c r="D149" t="n">
+        <v>3.129378025563831e-10</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-1.012541608003126e-06</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-9.89621757541137e-07</v>
+      </c>
+      <c r="H149" t="n">
+        <v>-1.342906898303026e-12</v>
+      </c>
+      <c r="I149" t="inlineStr">
+        <is>
+          <t>[ 0.00034395 -0.00034947]</t>
+        </is>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>[[-5486.36605439 -5487.36605439]
+ [-5487.36605439 -5486.36605439]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.9999962275290684</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.999994503106386</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3.115948956580801e-10</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5.782079508964699e-06</v>
+      </c>
+      <c r="G150" t="n">
+        <v>5.877602342496679e-06</v>
+      </c>
+      <c r="H150" t="n">
+        <v>-4.222489728771039e-11</v>
+      </c>
+      <c r="I150" t="inlineStr">
+        <is>
+          <t>[ 0.00033734 -0.00034488]</t>
+        </is>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>[[5518.99541719 5517.99541719]
+ [5517.99541719 5518.99541719]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.000002009608577</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.000000380708729</v>
+      </c>
+      <c r="D151" t="n">
+        <v>2.693699983703697e-10</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F151" t="n">
+        <v>3.056127744649473e-06</v>
+      </c>
+      <c r="G151" t="n">
+        <v>3.147919834356472e-06</v>
+      </c>
+      <c r="H151" t="n">
+        <v>-7.438287585640024e-12</v>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>[ 0.0003298  -0.00032578]</t>
+        </is>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>[[-5511.68179808 -5512.68179808]
+ [-5512.68179808 -5511.68179808]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.000005065736322</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.000003528628563</v>
+      </c>
+      <c r="D152" t="n">
+        <v>2.619317107847297e-10</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-5.595020900694969e-06</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-5.533048145434094e-06</v>
+      </c>
+      <c r="H152" t="n">
+        <v>-4.404924067158783e-11</v>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>[ 0.00031755 -0.00030742]</t>
+        </is>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>[[5538.82944268 5537.82944268]
+ [5537.82944268 5538.82944268]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.9999994707154213</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9999979955804175</v>
+      </c>
+      <c r="D153" t="n">
+        <v>2.178824701131418e-10</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.001153187808966278</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-7.086590992910757e-06</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-6.407368640770628e-06</v>
+      </c>
+      <c r="H153" t="n">
+        <v>-9.653321448104015e-11</v>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>[ 0.00029397 -0.00029503]</t>
+        </is>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>[[-5526.50843811 -5527.50843811]
+ [-5527.50843811 -5526.50843811]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.9999923841244284</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.9999915882117767</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.213492556321017e-10</v>
+      </c>
+      <c r="E154" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F154" t="n">
+        <v>8.972341000501594e-06</v>
+      </c>
+      <c r="G154" t="n">
+        <v>9.002399833368813e-06</v>
+      </c>
+      <c r="H154" t="n">
+        <v>-6.085604999423784e-11</v>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>[ 0.00014395 -0.00015918]</t>
+        </is>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>[[5950.87521837 5949.87521837]
+ [5949.87521837 5950.87521837]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.000001356465429</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.00000059061161</v>
+      </c>
+      <c r="D155" t="n">
+        <v>6.049320563786385e-11</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F155" t="n">
+        <v>5.283736559391627e-07</v>
+      </c>
+      <c r="G155" t="n">
+        <v>5.38588981413568e-07</v>
+      </c>
+      <c r="H155" t="n">
+        <v>1.583659983734167e-13</v>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>[ 0.00015588 -0.00015317]</t>
+        </is>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>[[-5948.76468457 -5949.76468457]
+ [-5949.76468457 -5948.76468457]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.000001884839085</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.000001129200591</v>
+      </c>
+      <c r="D156" t="n">
+        <v>6.065157163623727e-11</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-3.166429002443572e-06</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-3.123580353481259e-06</v>
+      </c>
+      <c r="H156" t="n">
+        <v>-8.202162695497481e-12</v>
+      </c>
+      <c r="I156" t="inlineStr">
+        <is>
+          <t>[ 0.0001549  -0.00015113]</t>
+        </is>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>[[5958.99941582 5957.99941582]
+ [5957.99941582 5958.99941582]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.9999987184100824</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.999998005620238</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5.244940894073978e-11</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F157" t="n">
+        <v>-5.082392603439345e-07</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-4.988999081634304e-07</v>
+      </c>
+      <c r="H157" t="n">
+        <v>2.383390418232161e-13</v>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>[ 0.00013999 -0.00014256]</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>[[-5943.28664326 -5944.28664326]
+ [-5944.28664326 -5943.28664326]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.999998210170822</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.9999975067203298</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5.2687747982563e-11</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F158" t="n">
+        <v>2.971124242190371e-06</v>
+      </c>
+      <c r="G158" t="n">
+        <v>3.010020982130435e-06</v>
+      </c>
+      <c r="H158" t="n">
+        <v>-7.129120990898385e-12</v>
+      </c>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>[ 0.00013711 -0.00014069]</t>
+        </is>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>[[5967.17868302 5966.17868302]
+ [5966.17868302 5967.17868302]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.000001181295064</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.000000516741312</v>
+      </c>
+      <c r="D159" t="n">
+        <v>4.555862699166462e-11</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F159" t="n">
+        <v>4.612335888776187e-07</v>
+      </c>
+      <c r="G159" t="n">
+        <v>4.700980065219795e-07</v>
+      </c>
+      <c r="H159" t="n">
+        <v>1.321237360922539e-13</v>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>[ 0.00013527 -0.00013291]</t>
+        </is>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>[[-5962.55419821 -5963.55419821]
+ [-5963.55419821 -5962.55419821]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.000001642528653</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.000000986839318</v>
+      </c>
+      <c r="D160" t="n">
+        <v>4.569075072775687e-11</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F160" t="n">
+        <v>-2.76556418277174e-06</v>
+      </c>
+      <c r="G160" t="n">
+        <v>-2.728381212957487e-06</v>
+      </c>
+      <c r="H160" t="n">
+        <v>-6.174529598104115e-12</v>
+      </c>
+      <c r="I160" t="inlineStr">
+        <is>
+          <t>[ 0.00013442 -0.00013114]</t>
+        </is>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>[[5972.65777937 5971.65777937]
+ [5971.65777937 5972.65777937]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.9999988769644703</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9999982584581055</v>
+      </c>
+      <c r="D161" t="n">
+        <v>3.951622112965275e-11</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F161" t="n">
+        <v>-4.463446765523571e-07</v>
+      </c>
+      <c r="G161" t="n">
+        <v>-4.382414017234382e-07</v>
+      </c>
+      <c r="H161" t="n">
+        <v>2.059263256196601e-13</v>
+      </c>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>[ 0.00012146 -0.0001237 ]</t>
+        </is>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>[[-5957.07355627 -5958.07355627]
+ [-5958.07355627 -5957.07355627]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9999984306197938</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.9999978202167038</v>
+      </c>
+      <c r="D162" t="n">
+        <v>3.972214745527241e-11</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F162" t="n">
+        <v>2.611234816374264e-06</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2.644982009969432e-06</v>
+      </c>
+      <c r="H162" t="n">
+        <v>-5.383484145105122e-12</v>
+      </c>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>[ 0.00011894 -0.00012208]</t>
+        </is>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>[[5980.55242788 5979.55242788]
+ [5979.55242788 5980.55242788]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.00000104185461</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.000000465198714</v>
+      </c>
+      <c r="D163" t="n">
+        <v>3.433866331016729e-11</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F163" t="n">
+        <v>4.07780425204507e-07</v>
+      </c>
+      <c r="G163" t="n">
+        <v>4.154734927208636e-07</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.346484869177852e-13</v>
+      </c>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>[ 0.00011741 -0.00011533]</t>
+        </is>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>[[-5976.03542094 -5977.03542094]
+ [-5977.03542094 -5976.03542094]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1.000001449635035</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.000000880672206</v>
+      </c>
+      <c r="D164" t="n">
+        <v>3.447331179708508e-11</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F164" t="n">
+        <v>-2.445823596652907e-06</v>
+      </c>
+      <c r="G164" t="n">
+        <v>-2.413551910329659e-06</v>
+      </c>
+      <c r="H164" t="n">
+        <v>-4.67718190065321e-12</v>
+      </c>
+      <c r="I164" t="inlineStr">
+        <is>
+          <t>[ 0.00011669 -0.00011379]</t>
+        </is>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>[[5985.74141349 5984.74141349]
+ [5984.74141349 5985.74141349]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9999990038114387</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.9999984671202962</v>
+      </c>
+      <c r="D165" t="n">
+        <v>2.979612989643187e-11</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F165" t="n">
+        <v>-3.96736694829869e-07</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-3.897067456515302e-07</v>
+      </c>
+      <c r="H165" t="n">
+        <v>1.982088467646849e-13</v>
+      </c>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>[ 0.00010535 -0.00010734]</t>
+        </is>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>[[-5970.52309132 -5971.52309132]
+ [-5971.52309132 -5970.52309132]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9999986070747439</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.9999980774135505</v>
+      </c>
+      <c r="D166" t="n">
+        <v>2.999433874319655e-11</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F166" t="n">
+        <v>2.322910487184693e-06</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2.352185005549678e-06</v>
+      </c>
+      <c r="H166" t="n">
+        <v>-4.090783763058152e-12</v>
+      </c>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>[ 0.00010315 -0.00010593]</t>
+        </is>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>[[5993.20034067 5992.20034067]
+ [5992.20034067 5993.20034067]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1.000000929985231</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.000000429598556</v>
+      </c>
+      <c r="D167" t="n">
+        <v>2.59035549801384e-11</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F167" t="n">
+        <v>3.648796220723227e-07</v>
+      </c>
+      <c r="G167" t="n">
+        <v>3.715569090179116e-07</v>
+      </c>
+      <c r="H167" t="n">
+        <v>1.480159914492976e-13</v>
+      </c>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>[ 0.00010194 -0.00010008]</t>
+        </is>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>[[-5988.88294096 -5989.88294096]
+ [-5989.88294096 -5988.88294096]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1.000001294864853</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.000000801155465</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2.60515709715877e-11</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0001400167910362912</v>
+      </c>
+      <c r="F168" t="n">
+        <v>-2.188724388285657e-06</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-2.160710740994887e-06</v>
+      </c>
+      <c r="H168" t="n">
+        <v>-3.565333807910643e-12</v>
+      </c>
+      <c r="I168" t="inlineStr">
+        <is>
+          <t>[ 1.01331607e-04 -9.87418776e-05]</t>
+        </is>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>[[5997.97302865 5996.97302865]
+ [5996.97302865 5997.97302865]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9999991061404648</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.9999986404447241</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2.248623716367706e-11</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.305348067594794e-05</v>
+      </c>
+      <c r="F169" t="n">
+        <v>-3.566351297612513e-07</v>
+      </c>
+      <c r="G169" t="n">
+        <v>-3.505370740342073e-07</v>
+      </c>
+      <c r="H169" t="n">
+        <v>2.005029509846433e-13</v>
+      </c>
+      <c r="I169" t="inlineStr">
+        <is>
+          <t>[ 9.13514291e-05 -9.31391481e-05]</t>
+        </is>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>[[-5983.3226214 -5984.3226214]
+ [-5984.3226214 -5983.3226214]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9999987495053351</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.9999982899076501</v>
+      </c>
+      <c r="D170" t="n">
+        <v>2.26867401146617e-11</v>
+      </c>
+      <c r="E170" t="n">
+        <v>9.916044202784384e-05</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.480091605277067e-06</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.498073169958758e-06</v>
+      </c>
+      <c r="H170" t="n">
+        <v>-3.131545585307857e-12</v>
+      </c>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>[ 8.94185477e-05 -9.19195370e-05]</t>
+        </is>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>[[6004.88365499 6003.88365499]
+ [6003.88365499 6004.88365499]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.00000022959694</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.99999978798082</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.955519452935384e-11</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0007000839551814561</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.867280036149666e-06</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.991268854473205e-06</v>
+      </c>
+      <c r="H171" t="n">
+        <v>-5.069591176215967e-12</v>
+      </c>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>[ 8.87824179e-05 -8.83232241e-05]</t>
+        </is>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>[[-6000.83396751 -6001.83396751]
+ [-6001.83396751 -6000.83396751]]</t>
         </is>
       </c>
     </row>

--- a/Report_Third_Pearson.xlsx
+++ b/Report_Third_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,29 +485,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>150</v>
+        <v>-0.6914893617021276</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6262458703880869</v>
+        <v>6.332875812655695</v>
       </c>
       <c r="F2" t="n">
-        <v>-11.89867153737367</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.504983481552432</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="H2" t="n">
-        <v>-118.0473421926917</v>
+        <v>-2.339012326833017</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[19.  4.]</t>
+          <t>[-0.34148182 -0.19333786]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -522,35 +522,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.898671537373675</v>
+        <v>2.162561938137853</v>
       </c>
       <c r="C3" t="n">
-        <v>7.495016518447568</v>
+        <v>1.224384658965657</v>
       </c>
       <c r="D3" t="n">
-        <v>31.95265780730827</v>
+        <v>-3.030501688535145</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3250780148090495</v>
+        <v>0.3695944430204291</v>
       </c>
       <c r="F3" t="n">
-        <v>2.2223107126099</v>
+        <v>-0.374416873583963</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.062563460019897</v>
+        <v>0.349913111403884</v>
       </c>
       <c r="H3" t="n">
-        <v>-13.77648966031957</v>
+        <v>-0.3797285322287296</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[-2.29235959 10.88870457]</t>
+          <t>[ 0.70846967 -1.25132707]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[ 0.47141738 -0.52858262]
- [-0.52858262  0.47141738]]</t>
+          <t>[[ 0.43893511 -0.56106489]
+ [-0.56106489  0.43893511]]</t>
         </is>
       </c>
     </row>
@@ -559,35 +559,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.3236391752362251</v>
+        <v>1.78814506455389</v>
       </c>
       <c r="C4" t="n">
-        <v>5.432453058427671</v>
+        <v>1.574297770369541</v>
       </c>
       <c r="D4" t="n">
-        <v>18.1761681469887</v>
+        <v>-3.410230220763874</v>
       </c>
       <c r="E4" t="n">
-        <v>3.920940354420087e-08</v>
+        <v>4.348389486982408e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>2.450988018654066e-07</v>
+        <v>-7.539340009632411e-06</v>
       </c>
       <c r="G4" t="n">
-        <v>2.322992198600105e-07</v>
+        <v>-7.210590500461578e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>2.087981453513521e-06</v>
+        <v>1.64710352410502e-05</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[4.21482529 4.54126694]</t>
+          <t>[-1.07971966 -1.15532225]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[-0.1952645 -1.1952645]
- [-1.1952645 -0.1952645]]</t>
+          <t>[[-0.25883241 -1.25883241]
+ [-1.25883241 -0.25883241]]</t>
         </is>
       </c>
     </row>
@@ -596,35 +596,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.323639420335027</v>
+        <v>1.78813752521388</v>
       </c>
       <c r="C5" t="n">
-        <v>5.432453290726891</v>
+        <v>1.57429055977904</v>
       </c>
       <c r="D5" t="n">
-        <v>18.17617023497015</v>
+        <v>-3.410213749728633</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2924883093780763</v>
+        <v>0.01670991455705744</v>
       </c>
       <c r="F5" t="n">
-        <v>-4.33052448262355</v>
+        <v>0.3885634745955935</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.426004837586953</v>
+        <v>0.3898262869501039</v>
       </c>
       <c r="H5" t="n">
-        <v>-19.17603685033801</v>
+        <v>-0.4611932377656336</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[4.21482555 4.54126716]</t>
+          <t>[-1.07974867 -1.15532131]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[2.20955527 1.20955527]
- [1.20955527 2.20955527]]</t>
+          <t>[[10.92081691  9.92081691]
+ [ 9.92081691 10.92081691]]</t>
         </is>
       </c>
     </row>
@@ -633,35 +633,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.006885062288522</v>
+        <v>2.176700999809474</v>
       </c>
       <c r="C6" t="n">
-        <v>1.006448453139939</v>
+        <v>1.964116846729144</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9998666153678535</v>
+        <v>-3.871406987494267</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3332515429448644</v>
+        <v>0.338101536010981</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00656196088966432</v>
+        <v>-0.3328567624763523</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.006768282878579113</v>
+        <v>0.3521682144404832</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0001332812840040276</v>
+        <v>-0.3477684534712639</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.02021858  0.01978197]</t>
+          <t>[ 1.01456732 -1.01152516]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[-0.20900699 -1.20900699]
- [-1.20900699 -0.20900699]]</t>
+          <t>[[-8.88762967 -9.88762967]
+ [-9.88762967 -8.88762967]]</t>
         </is>
       </c>
     </row>
@@ -670,35 +670,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.000323101398858</v>
+        <v>1.843844237333121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9996801702613596</v>
+        <v>2.316285061169627</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.9999998966518575</v>
+        <v>-4.219175440965531</v>
       </c>
       <c r="E7" t="n">
-        <v>3.920940354420087e-08</v>
+        <v>0.01325720590178662</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.448974439379526e-11</v>
+        <v>0.2509446763804477</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.48746587164328e-11</v>
+        <v>0.2503026655927907</v>
       </c>
       <c r="H7" t="n">
-        <v>2.131628207280301e-14</v>
+        <v>-0.2173433848841384</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.00032637 -0.00031656]</t>
+          <t>[-0.88291935 -0.83449205]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[-0.8757901 -1.8757901]
- [-1.8757901 -0.8757901]]</t>
+          <t>[[11.50767869 10.50767869]
+ [10.50767869 11.50767869]]</t>
         </is>
       </c>
     </row>
@@ -707,35 +707,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-4.000323101433348</v>
+        <v>2.094788913713569</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9996801702264849</v>
+        <v>2.566587726762418</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9999998966518362</v>
+        <v>-4.436518825849669</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2104246334032583</v>
+        <v>0.2529903630436824</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0003225201060903515</v>
+        <v>-0.1319169042482222</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00032045479262377</v>
+        <v>0.125997523658159</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.033470695688266e-07</v>
+        <v>-0.06601048217374572</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[-0.00032637 -0.00031656]</t>
+          <t>[ 0.50916697 -0.51029648]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[[2.87630914 1.87630914]
- [1.87630914 2.87630914]]</t>
+          <t>[[ -9.85748566 -10.85748566]
+ [-10.85748566  -9.85748566]]</t>
         </is>
       </c>
     </row>
@@ -744,35 +744,294 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-4.000000581327257</v>
+        <v>1.962872009465347</v>
       </c>
       <c r="C9" t="n">
-        <v>1.000000625019109</v>
+        <v>2.692585250420577</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.9999999999989058</v>
+        <v>-4.502529308023415</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3432449999216668</v>
+        <v>0.005894366301292123</v>
       </c>
       <c r="F9" t="n">
-        <v>6.417483318088557e-07</v>
+        <v>0.04764076506913217</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.004688992700125e-07</v>
+        <v>0.04769363866475862</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.097788526749355e-12</v>
+        <v>-0.009322861658427328</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>[-1.78767375e-06  1.83136581e-06]</t>
+          <t>[-0.19094954 -0.19991973]</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>[[-0.87624884 -1.87624884]
- [-1.87624884 -0.87624884]]</t>
+          <t>[[21.18954848 20.18954848]
+ [20.18954848 21.18954848]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.010512774534479</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.740278889085336</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-4.511852169681842</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.2385519770820237</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.01289629486605715</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.01234762559289049</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.0006676234920650614</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[ 0.05288253 -0.05293894]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[-19.88613026 -20.88613026]
+ [-20.88613026 -19.88613026]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.997616479668422</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.752626514678226</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-4.512519793173907</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002148989501692404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.002924244183692304</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.002925379642346293</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-3.564106019915414e-05</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-0.01191378 -0.01244215]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[56.38032323 55.38032323]
+ [55.38032323 56.38032323]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2.000540723852114</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.755551894320572</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-4.512555434234106</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.1947057166132569</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.0006970853783498931</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0003568218426592829</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-1.424713099495989e-06</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[ 0.00269855 -0.00271427]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[-55.10018693 -56.10018693]
+ [-56.10018693 -55.10018693]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1.999843638473764</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.755908716163232</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-4.512556858947206</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.00200162891401638</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.0002764971372095637</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0002779861710324738</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-3.197547808753143e-07</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[-0.00078019 -0.0015241 ]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[[60.60853959 59.60853959]
+ [59.60853959 60.60853959]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2.000120135610974</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.756186702334264</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-4.512557178701987</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2480648326997222</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.0001066291382532114</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0001900286047393784</v>
+      </c>
+      <c r="H14" t="n">
+        <v>-8.86314239778585e-08</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[ 0.00059935 -0.00059654]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[[-59.33023254 -60.33023254]
+ [-60.33023254 -59.33023254]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.000013506472721</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.756376730939003</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-4.512557267333411</v>
+      </c>
+      <c r="E15" t="n">
+        <v>4.348389486982408e-06</v>
+      </c>
+      <c r="F15" t="n">
+        <v>6.902685676379861e-07</v>
+      </c>
+      <c r="G15" t="n">
+        <v>6.903969236304874e-07</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7.462919171530302e-11</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[6.73760548e-05 3.78579879e-05]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[[-1508.09888684 -1509.09888684]
+ [-1509.09888684 -1508.09888684]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2.000014196741288</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.756377421335927</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-4.512557267258781</v>
+      </c>
+      <c r="E16" t="n">
+        <v>7.80286833249941e-05</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.306781742904661e-05</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-1.306542536738675e-05</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-7.392859657784356e-10</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[7.08193832e-05 4.01631984e-05]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[[1509.37827784 1508.37827784]
+ [1508.37827784 1509.37827784]]</t>
         </is>
       </c>
     </row>

--- a/Report_Third_Pearson.xlsx
+++ b/Report_Third_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,23 +491,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6914893617021276</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>6.332875812655695</v>
+        <v>0.3421325900429019</v>
       </c>
       <c r="F2" t="n">
-        <v>2.162561938137853</v>
+        <v>-3.079193310386117</v>
       </c>
       <c r="G2" t="n">
-        <v>1.224384658965657</v>
+        <v>2.052795540257412</v>
       </c>
       <c r="H2" t="n">
-        <v>-2.339012326833017</v>
+        <v>-20.01315776704111</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[-0.34148182 -0.19333786]</t>
+          <t>[ 9. -6.]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -522,35 +522,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.162561938137853</v>
+        <v>-3.079193310386117</v>
       </c>
       <c r="C3" t="n">
-        <v>1.224384658965657</v>
+        <v>2.052795540257412</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.030501688535145</v>
+        <v>-0.01315776704111471</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3695944430204291</v>
+        <v>0.000366568717928702</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.374416873583963</v>
+        <v>0.0001910171793890747</v>
       </c>
       <c r="G3" t="n">
-        <v>0.349913111403884</v>
+        <v>4.586822810548341e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.3797285322287296</v>
+        <v>0.0002050515491873739</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[ 0.70846967 -1.25132707]</t>
+          <t>[0.78881784 1.18478439]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[ 0.43893511 -0.56106489]
- [-0.56106489  0.43893511]]</t>
+          <t>[[ 0.33628319 -0.66371681]
+ [-0.66371681  0.33628319]]</t>
         </is>
       </c>
     </row>
@@ -559,35 +559,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.78814506455389</v>
+        <v>-3.079002293206728</v>
       </c>
       <c r="C4" t="n">
-        <v>1.574297770369541</v>
+        <v>2.052841408485517</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.410230220763874</v>
+        <v>-0.01295271549192734</v>
       </c>
       <c r="E4" t="n">
-        <v>4.348389486982408e-06</v>
+        <v>0.000366568717928702</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.539340009632411e-06</v>
+        <v>0.0008281300883852261</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.210590500461578e-06</v>
+        <v>0.0006831407582965632</v>
       </c>
       <c r="H4" t="n">
-        <v>1.64710352410502e-05</v>
+        <v>0.001463415611826946</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[-1.07971966 -1.15532225]</t>
+          <t>[0.78915401 1.18468511]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[-0.25883241 -1.25883241]
- [-1.25883241 -0.25883241]]</t>
+          <t>[[-0.5443478 -1.5443478]
+ [-1.5443478 -0.5443478]]</t>
         </is>
       </c>
     </row>
@@ -596,35 +596,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.78813752521388</v>
+        <v>-3.078174163118343</v>
       </c>
       <c r="C5" t="n">
-        <v>1.57429055977904</v>
+        <v>2.053524549243814</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.410213749728633</v>
+        <v>-0.01148929988010039</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01670991455705744</v>
+        <v>0.2280238938798624</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3885634745955935</v>
+        <v>-0.9456403518600642</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3898262869501039</v>
+        <v>-1.035731711495415</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.4611932377656336</v>
+        <v>-0.9872032561200328</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[-1.07974867 -1.15532131]</t>
+          <t>[0.79012712 1.18522326]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[10.92081691  9.92081691]
- [ 9.92081691 10.92081691]]</t>
+          <t>[[2.69943707 1.69943707]
+ [1.69943707 2.69943707]]</t>
         </is>
       </c>
     </row>
@@ -633,35 +633,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2.176700999809474</v>
+        <v>-4.023814514978407</v>
       </c>
       <c r="C6" t="n">
-        <v>1.964116846729144</v>
+        <v>1.017792837748399</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.871406987494267</v>
+        <v>-0.9986925560001332</v>
       </c>
       <c r="E6" t="n">
-        <v>0.338101536010981</v>
+        <v>0.3301632138361192</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3328567624763523</v>
+        <v>0.01824406186547112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3521682144404832</v>
+        <v>-0.02296759002113502</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.3477684534712639</v>
+        <v>-0.001278461705808809</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[ 1.01456732 -1.01152516]</t>
+          <t>[-0.06542187  0.05940019]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[-8.88762967 -9.88762967]
- [-9.88762967 -8.88762967]]</t>
+          <t>[[-0.68792865 -1.68792865]
+ [-1.68792865 -0.68792865]]</t>
         </is>
       </c>
     </row>
@@ -670,35 +670,35 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.843844237333121</v>
+        <v>-4.005570453112936</v>
       </c>
       <c r="C7" t="n">
-        <v>2.316285061169627</v>
+        <v>0.9948252477272637</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.219175440965531</v>
+        <v>-0.999971017705942</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01325720590178662</v>
+        <v>0.9764278163043634</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2509446763804477</v>
+        <v>0.005825518676184416</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2503026655927907</v>
+        <v>0.00466639875427699</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2173433848841384</v>
+        <v>-2.852914883533231e-05</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.88291935 -0.83449205]</t>
+          <t>[-0.00596615 -0.00477905]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>[[11.50767869 10.50767869]
- [10.50767869 11.50767869]]</t>
+          <t>[[1 0]
+ [0 1]]</t>
         </is>
       </c>
     </row>
@@ -707,331 +707,35 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2.094788913713569</v>
+        <v>-3.999744934436752</v>
       </c>
       <c r="C8" t="n">
-        <v>2.566587726762418</v>
+        <v>0.9994916464815407</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.436518825849669</v>
+        <v>-0.9999995468547773</v>
       </c>
       <c r="E8" t="n">
-        <v>0.2529903630436824</v>
+        <v>0.3359213500126181</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1319169042482222</v>
+        <v>-0.0003477449276534372</v>
       </c>
       <c r="G8" t="n">
-        <v>0.125997523658159</v>
+        <v>0.0004216013780026229</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.06601048217374572</v>
+        <v>-4.450699577773776e-07</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[ 0.50916697 -0.51029648]</t>
+          <t>[ 0.00101848 -0.00127177]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[[ -9.85748566 -10.85748566]
- [-10.85748566  -9.85748566]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1.962872009465347</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.692585250420577</v>
-      </c>
-      <c r="D9" t="n">
-        <v>-4.502529308023415</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.005894366301292123</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.04764076506913217</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.04769363866475862</v>
-      </c>
-      <c r="H9" t="n">
-        <v>-0.009322861658427328</v>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[-0.19094954 -0.19991973]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>[[21.18954848 20.18954848]
- [20.18954848 21.18954848]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2.010512774534479</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.740278889085336</v>
-      </c>
-      <c r="D10" t="n">
-        <v>-4.511852169681842</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.2385519770820237</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.01289629486605715</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0.01234762559289049</v>
-      </c>
-      <c r="H10" t="n">
-        <v>-0.0006676234920650614</v>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[ 0.05288253 -0.05293894]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>[[-19.88613026 -20.88613026]
- [-20.88613026 -19.88613026]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1.997616479668422</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.752626514678226</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-4.512519793173907</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.002148989501692404</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.002924244183692304</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.002925379642346293</v>
-      </c>
-      <c r="H11" t="n">
-        <v>-3.564106019915414e-05</v>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[-0.01191378 -0.01244215]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>[[56.38032323 55.38032323]
- [55.38032323 56.38032323]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2.000540723852114</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.755551894320572</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-4.512555434234106</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.1947057166132569</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.0006970853783498931</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.0003568218426592829</v>
-      </c>
-      <c r="H12" t="n">
-        <v>-1.424713099495989e-06</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[ 0.00269855 -0.00271427]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>[[-55.10018693 -56.10018693]
- [-56.10018693 -55.10018693]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1.999843638473764</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.755908716163232</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-4.512556858947206</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.00200162891401638</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.0002764971372095637</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.0002779861710324738</v>
-      </c>
-      <c r="H13" t="n">
-        <v>-3.197547808753143e-07</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[-0.00078019 -0.0015241 ]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>[[60.60853959 59.60853959]
- [59.60853959 60.60853959]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2.000120135610974</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.756186702334264</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-4.512557178701987</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.2480648326997222</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.0001066291382532114</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.0001900286047393784</v>
-      </c>
-      <c r="H14" t="n">
-        <v>-8.86314239778585e-08</v>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[ 0.00059935 -0.00059654]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>[[-59.33023254 -60.33023254]
- [-60.33023254 -59.33023254]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2.000013506472721</v>
-      </c>
-      <c r="C15" t="n">
-        <v>2.756376730939003</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-4.512557267333411</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4.348389486982408e-06</v>
-      </c>
-      <c r="F15" t="n">
-        <v>6.902685676379861e-07</v>
-      </c>
-      <c r="G15" t="n">
-        <v>6.903969236304874e-07</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7.462919171530302e-11</v>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[6.73760548e-05 3.78579879e-05]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>[[-1508.09888684 -1509.09888684]
- [-1509.09888684 -1508.09888684]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2.000014196741288</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.756377421335927</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-4.512557267258781</v>
-      </c>
-      <c r="E16" t="n">
-        <v>7.80286833249941e-05</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-1.306781742904661e-05</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-1.306542536738675e-05</v>
-      </c>
-      <c r="H16" t="n">
-        <v>-7.392859657784356e-10</v>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[7.08193832e-05 4.01631984e-05]</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>[[1509.37827784 1508.37827784]
- [1508.37827784 1509.37827784]]</t>
+          <t>[[ 0.93401655 -0.06598345]
+ [-0.06598345  0.93401655]]</t>
         </is>
       </c>
     </row>

--- a/Report_Third_Pearson.xlsx
+++ b/Report_Third_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,29 +485,29 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>1100</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3421325900429019</v>
+        <v>0.050336522542271</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.079193310386117</v>
+        <v>-10.06730450845419</v>
       </c>
       <c r="G2" t="n">
-        <v>2.052795540257412</v>
+        <v>-1.006730450845415</v>
       </c>
       <c r="H2" t="n">
-        <v>-20.01315776704111</v>
+        <v>-1019.075803847666</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[ 9. -6.]</t>
+          <t>[200.  20.]</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -522,35 +522,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.079193310386117</v>
+        <v>-0.06730450845419256</v>
       </c>
       <c r="C3" t="n">
-        <v>2.052795540257412</v>
+        <v>8.993269549154585</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.01315776704111471</v>
+        <v>80.92419615233371</v>
       </c>
       <c r="E3" t="n">
-        <v>0.000366568717928702</v>
+        <v>0.01041656619921168</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0001910171793890747</v>
+        <v>0.1786833589641849</v>
       </c>
       <c r="G3" t="n">
-        <v>4.586822810548341e-05</v>
+        <v>-0.0226962536044315</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0002050515491873739</v>
+        <v>-0.3289584180868985</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[0.78881784 1.18478439]</t>
+          <t>[-1.34609017 17.9865391 ]</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>[[ 0.33628319 -0.66371681]
- [-0.66371681  0.33628319]]</t>
+          <t>[[ 0.050045 -0.949955]
+ [-0.949955  0.050045]]</t>
         </is>
       </c>
     </row>
@@ -559,35 +559,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-3.079002293206728</v>
+        <v>0.1113788505099924</v>
       </c>
       <c r="C4" t="n">
-        <v>2.052841408485517</v>
+        <v>8.970573295550153</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01295271549192734</v>
+        <v>80.59523773424681</v>
       </c>
       <c r="E4" t="n">
         <v>0.000366568717928702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0008281300883852261</v>
+        <v>0.09573361119692447</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006831407582965632</v>
+        <v>0.08997350814157024</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001463415611826946</v>
+        <v>1.927226365584488</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[0.78915401 1.18468511]</t>
+          <t>[ 2.22757701 17.94114659]</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>[[-0.5443478 -1.5443478]
- [-1.5443478 -0.5443478]]</t>
+          <t>[[-12.05928 -13.05928]
+ [-13.05928 -12.05928]]</t>
         </is>
       </c>
     </row>
@@ -596,35 +596,35 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.078174163118343</v>
+        <v>0.2071124617069169</v>
       </c>
       <c r="C5" t="n">
-        <v>2.053524549243814</v>
+        <v>9.060546803691723</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.01148929988010039</v>
+        <v>82.5224640998313</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2280238938798624</v>
+        <v>0.003472188733070558</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.9456403518600642</v>
+        <v>-1.010313389977633</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.035731711495415</v>
+        <v>-1.058850575911761</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.9872032561200328</v>
+        <v>-12.04400426641381</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[0.79012712 1.18522326]</t>
+          <t>[ 4.14224923 18.12109361]</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>[[2.69943707 1.69943707]
- [1.69943707 2.69943707]]</t>
+          <t>[[13.88354653 12.88354653]
+ [12.88354653 13.88354653]]</t>
         </is>
       </c>
     </row>
@@ -633,35 +633,35 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-4.023814514978407</v>
+        <v>-0.8032009282707162</v>
       </c>
       <c r="C6" t="n">
-        <v>1.017792837748399</v>
+        <v>8.001696227779963</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.9986925560001332</v>
+        <v>70.47845983341749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3301632138361192</v>
+        <v>0.09821402736940144</v>
       </c>
       <c r="F6" t="n">
-        <v>0.01824406186547112</v>
+        <v>1.499256133331233</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.02296759002113502</v>
+        <v>-1.650213450348577</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.001278461705808809</v>
+        <v>-25.29219787649159</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>[-0.06542187  0.05940019]</t>
+          <t>[-16.06401857  16.00339246]</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>[[-0.68792865 -1.68792865]
- [-1.68792865 -0.68792865]]</t>
+          <t>[[-12.17625452 -13.17625452]
+ [-13.17625452 -12.17625452]]</t>
         </is>
       </c>
     </row>
@@ -670,29 +670,29 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.005570453112936</v>
+        <v>0.6960552050605171</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9948252477272637</v>
+        <v>6.351482777431386</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.999971017705942</v>
+        <v>45.1862619569259</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9764278163043634</v>
+        <v>0.08477837629090401</v>
       </c>
       <c r="F7" t="n">
-        <v>0.005825518676184416</v>
+        <v>-1.180208601877258</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00466639875427699</v>
+        <v>-1.076936793820549</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.852914883533231e-05</v>
+        <v>-15.0213815072088</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>[-0.00596615 -0.00477905]</t>
+          <t>[13.9211041  12.70296555]</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -707,35 +707,1959 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-3.999744934436752</v>
+        <v>-0.4841533968167411</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9994916464815407</v>
+        <v>5.274545983610837</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.9999995468547773</v>
+        <v>30.1648804497171</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3359213500126181</v>
+        <v>0.08551151372676141</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0003477449276534372</v>
+        <v>0.8980908837424917</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0004216013780026229</v>
+        <v>-0.8319917355725126</v>
       </c>
       <c r="H8" t="n">
-        <v>-4.450699577773776e-07</v>
+        <v>-8.715149772129678</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>[ 0.00101848 -0.00127177]</t>
+          <t>[-9.68306794 10.54909197]</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>[[ 0.93401655 -0.06598345]
- [-0.06598345  0.93401655]]</t>
+          <t>[[ 0.05371599 -0.94628401]
+ [-0.94628401  0.05371599]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4139374869257506</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.442554248038324</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.44973067758742</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.02687246294566253</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02665019079329856</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.4671917575412401</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[8.27874974 8.8851085 ]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>[[-3.75341074 -4.75341074]
+ [-4.75341074 -3.75341074]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.4408099498714131</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.469204438831623</v>
+      </c>
+      <c r="D10" t="n">
+        <v>21.91692243512866</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.008950291327496867</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.8204883080597867</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.8215821220909882</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-7.170217312778156</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[8.816199   8.93840888]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>[[5.66670337 4.66670337]
+ [4.66670337 5.66670337]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3796783581883735</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3.647622316740635</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.74670512235051</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.1230589874905363</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7503968435163739</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-1.081805261190209</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-6.788966006158181</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[-7.59356716  7.29524463]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>[[-4.01371515 -5.01371515]
+ [-5.01371515 -4.01371515]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.3707184853280004</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.565817055550426</v>
+      </c>
+      <c r="D12" t="n">
+        <v>7.957739116192324</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07043651750483695</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.5222423816234469</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.3614544358949736</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-2.868929645772545</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[7.41436971 5.13163411]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1515238962954465</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.204362619655452</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.088809470419779</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.06778400134347992</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2939694555337218</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.2102895018119622</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-0.9095744976466724</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[-3.03047793  4.40872524]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>[[ 0.05214536 -0.94785464]
+ [-0.94785464  0.05214536]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.1424455592382752</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.99407311784349</v>
+      </c>
+      <c r="D14" t="n">
+        <v>4.179234972773107</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0130595823365745</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.01264197440453874</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.08948897924504795</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[2.84891118 3.98814624]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>[[-4.62748981 -5.62748981]
+ [-5.62748981 -4.62748981]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1555051415748497</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.006715092248029</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4.268723952018155</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.007764050037854641</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.3294653880749371</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-0.3364788668441845</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-1.176413229743162</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[3.11010283 4.01343018]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>[[6.5203829 5.5203829]
+ [5.5203829 6.5203829]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1739602465000873</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.670236225403844</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.092310722274992</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.1311896062463196</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.3498409623873713</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.5448298279279513</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-1.51643090058509</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[-3.47920493  3.34047245]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>[[-4.85676064 -5.85676064]
+ [-5.85676064 -4.85676064]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.175880715887284</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.125406397475893</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.575879821689902</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.06778400134347992</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.2384379736399174</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-0.1525690975169336</v>
+      </c>
+      <c r="H17" t="n">
+        <v>-0.5903333045231703</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[3.51761432 2.25081279]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.06255725775263341</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.9728372999589592</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.985546517166732</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.06422527747455324</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1226493240636898</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08266731173542852</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-0.1570333448975273</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[-1.25114516  1.9456746 ]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>[[ 0.05183493 -0.94816507]
+ [-0.94816507  0.05183493]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.06009206631105643</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8901699882235307</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8285131722692047</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.005951002648982864</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.005738943140446096</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.01775651060514316</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[1.20184133 1.78033998]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>[[-4.84678915 -5.84678915]
+ [-5.84678915 -4.84678915]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.06604306896003929</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.8959089313639768</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.8462696828743479</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.007310946184069819</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.1401729585754033</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-0.1436160960815092</v>
+      </c>
+      <c r="H20" t="n">
+        <v>-0.2253727675131534</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[1.32086138 1.79181786]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[[6.73530482 5.73530482]
+ [5.73530482 6.73530482]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.07412988961536403</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.7522928352824676</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.6208969153611945</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07975337755026252</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1288853446101563</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.1093526259161923</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.1775432040243774</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[-1.48259779  1.50458567]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[[-5.06929589 -6.06929589]
+ [-6.06929589 -5.06929589]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.05475545499479227</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6429402093662753</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.4433537113368171</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.1044252673996852</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.1143570605884522</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1342784065701658</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-0.149093367819607</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[1.0951091  1.28588042]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.05960160559365994</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5086618027961095</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.2942603435172101</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.1017727512383281</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.104533667703047</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.120318542127539</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1232609533564947</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[-1.19203211  1.01732361]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>[[ 0.05612001 -0.94387999]
+ [-0.94387999  0.05612001]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.04493206210938706</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3883432606685705</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.1709993901607154</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.002193251661998033</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.002237956447665612</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.003762248983799898</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[0.89864124 0.77668652]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>[[-3.1077544 -4.1077544]
+ [-4.1077544 -3.1077544]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0471253137713851</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.3905812171162361</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1747616391445153</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.009683428763354273</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.07658138104913514</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.07501901945651518</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.06650553955796919</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[0.94250628 0.78116243]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>[[5.0413753 4.0413753]
+ [4.0413753 5.0413753]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.02945606727775005</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.3155621976597209</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.1082560995865462</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05965338258769658</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.04616352515185481</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.02662826087953563</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.02198188827710018</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[-0.58912135  0.6311244 ]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>[[-3.39828328 -4.39828328]
+ [-4.39828328 -3.39828328]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.01670745787410476</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2889339367801853</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.08627421130944597</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.1536620837881701</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.05134605583476019</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.08879638160552539</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.0342208456313567</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[0.33414916 0.57786787]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.03463859796065543</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2001375551746599</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.05205336567808927</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.1268977449415356</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.05313489532239767</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.08557031292002822</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.03550658251931788</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[-0.69277196  0.40027511]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>[[ 0.06306745 -0.93693255]
+ [-0.93693255  0.06306745]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.01849629736174224</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1145672422546317</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01654678315877139</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.0005829456083228379</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0006345553543094656</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0003648461366678249</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[0.36992595 0.22913448]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>[[-2.27212802 -3.27212802]
+ [-3.27212802 -2.27212802]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.01907924297006507</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.1152017976089412</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01691162929543922</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0116028074888539</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.02745012529195575</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.02569599818771398</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-0.008199624456936847</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[0.38158486 0.2304036 ]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>[[4.2422714 3.2422714]
+ [3.2422714 4.2422714]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.008370882321890677</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.08950579942122719</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.008712004838502372</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.06541151876419547</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.01369317532382123</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.008967287754295103</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-0.001942284948993828</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[-0.16741765  0.1790116 ]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>[[-2.61578616 -3.61578616]
+ [-3.61578616 -2.61578616]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.005322293001930552</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.08053851166693209</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.006769719889508545</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1338421224076767</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.0142469398290782</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.02155889067411525</v>
+      </c>
+      <c r="H32" t="n">
+        <v>-0.00249463098715906</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[0.10644586 0.16107702]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.008924646827147645</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.05897962099281683</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.004275088902349485</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1184870926036796</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.01440752401733768</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-0.02071823271254152</v>
+      </c>
+      <c r="H33" t="n">
+        <v>-0.002510535646388434</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[-0.17849294  0.11795924]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>[[ 0.06007371 -0.93992629]
+ [-0.93992629  0.06007371]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.00548287719019004</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.03826138828027531</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001764553255961051</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0002009139875806974</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.0002130601567279233</v>
+      </c>
+      <c r="H34" t="n">
+        <v>3.878474809561436e-05</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[0.10965754 0.07652278]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>[[-2.53287176 -3.53287176]
+ [-3.53287176 -2.53287176]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.005683791177770737</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.03847444843700323</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.001803338004056665</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0108696700529965</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.008467959019161088</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.00806874944407359</v>
+      </c>
+      <c r="H35" t="n">
+        <v>-0.0008013155671177006</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[0.11367582 0.0769489 ]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>[[4.49046488 3.49046488]
+ [3.49046488 4.49046488]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.002784167841390351</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.03040569899292964</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.001002022436938965</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05728090000841213</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.004322935744024328</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-0.00234998865796178</v>
+      </c>
+      <c r="H36" t="n">
+        <v>-0.0001912214879575766</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[-0.05568336  0.0608114 ]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>[[-2.85833571 -3.85833571]
+ [-3.85833571 -2.85833571]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.001538767902633977</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.02805571033496786</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.0008108009489813882</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.162072736126026</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.004987846484855897</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.00909413147589494</v>
+      </c>
+      <c r="H37" t="n">
+        <v>-0.0003322980454891273</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[0.03077536 0.05611142]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.00344907858222192</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01896157885907292</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.0004785029034922609</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.1297233313746048</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.005179299994280621</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.008688737638334351</v>
+      </c>
+      <c r="H38" t="n">
+        <v>-0.0003430349753982913</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[-0.06898157  0.03792316]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>[[ 0.06447793 -0.93552207]
+ [-0.93552207  0.06447793]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.001730221412058701</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01027284122073857</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.0001354679280939696</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>5.164740625572452e-05</v>
+      </c>
+      <c r="G39" t="n">
+        <v>5.68009026792049e-05</v>
+      </c>
+      <c r="H39" t="n">
+        <v>2.984143160729782e-06</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[0.03460443 0.02054568]</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>[[-2.18219902 -3.18219902]
+ [-3.18219902 -2.18219902]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.001781868818314426</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01032964212341778</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.0001384520712546994</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01205591134263873</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.002572388232440152</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.002391813681766152</v>
+      </c>
+      <c r="H40" t="n">
+        <v>-6.919374144450911e-05</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[0.03563738 0.02065928]</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>[[4.15709938 3.15709938]
+ [3.15709938 4.15709938]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.0007905194141257263</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.007937828441651626</v>
+      </c>
+      <c r="D41" t="n">
+        <v>6.92583298101903e-05</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.08907023759568811</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.001428772525814221</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.001393511045572874</v>
+      </c>
+      <c r="H41" t="n">
+        <v>-2.235656928377085e-05</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[-0.01581039  0.01587566]</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>[[-2.53272918 -3.53272918]
+ [-3.53272918 -2.53272918]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.0006382531116884951</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.006544317396078752</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.690176052641945e-05</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.09290899504668737</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.001185989103847984</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.001216051905072462</v>
+      </c>
+      <c r="H42" t="n">
+        <v>-1.551120021270154e-05</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[0.01276506 0.01308863]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.0005477359921594893</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.00532826549100629</v>
+      </c>
+      <c r="D43" t="n">
+        <v>3.13905603137179e-05</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.09290899504668737</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0009916025123048184</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.001016277083566627</v>
+      </c>
+      <c r="H43" t="n">
+        <v>-1.082714141076463e-05</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[-0.01095472  0.01065653]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>[[ 0.0546818 -0.9453182]
+ [-0.9453182  0.0546818]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.0004438665201453292</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.004311988407439663</v>
+      </c>
+      <c r="D44" t="n">
+        <v>2.056341890295328e-05</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.524729630828623e-05</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.534016780823215e-05</v>
+      </c>
+      <c r="H44" t="n">
+        <v>4.496779945854231e-07</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[0.00887733 0.00862398]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>[[-3.4426391 -4.4426391]
+ [-4.4426391 -3.4426391]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.0004691138164536154</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.004337328575247895</v>
+      </c>
+      <c r="D45" t="n">
+        <v>2.10130968975387e-05</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.009230324909569449</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.0008141376516644971</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.000807606096733993</v>
+      </c>
+      <c r="H45" t="n">
+        <v>-7.363741653576118e-06</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[0.00938228 0.00867466]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>[[5.36509416 4.36509416]
+ [4.36509416 5.36509416]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-0.0003450238352108818</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.003529722478513902</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.364935524396258e-05</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.07783399882476288</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0005954512878584902</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.0004911052383166693</v>
+      </c>
+      <c r="H46" t="n">
+        <v>-3.789021421143033e-06</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[-0.00690048  0.00705944]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>[[-3.71663755 -4.71663755]
+ [-4.71663755 -3.71663755]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.0002504274526476084</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.003038617240197233</v>
+      </c>
+      <c r="D47" t="n">
+        <v>9.860333822819548e-06</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.107530887414827</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.0005385737243246383</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.0006534904167048022</v>
+      </c>
+      <c r="H47" t="n">
+        <v>-3.34122111986273e-06</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[0.00500855 0.00607723]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-0.0002881462716770299</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.00238512682349243</v>
+      </c>
+      <c r="D48" t="n">
+        <v>6.519112702956818e-06</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.1036921299638278</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0005004564285783182</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.0005917513455718001</v>
+      </c>
+      <c r="H48" t="n">
+        <v>-2.852161070915272e-06</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[-0.00576293  0.00477025]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>[[ 0.0565291 -0.9434709]
+ [-0.9434709  0.0565291]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.0002123101569012882</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.00179337547792063</v>
+      </c>
+      <c r="D49" t="n">
+        <v>3.666951632041546e-06</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.002405089830025e-05</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.026578543925896e-05</v>
+      </c>
+      <c r="H49" t="n">
+        <v>8.04951744316179e-08</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[0.0042462  0.00358675]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>[[-3.03319467 -4.03319467]
+ [-4.03319467 -3.03319467]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.0002223342077995885</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.001803641263359889</v>
+      </c>
+      <c r="D50" t="n">
+        <v>3.747446806473164e-06</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.01013653261713909</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.0003691597900383544</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.0003606511680443591</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-1.449648875296914e-06</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[0.00444668 0.00360728]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>[[4.96972839 3.96972839]
+ [3.96972839 4.96972839]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-0.0001468255822387659</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.00144299009531553</v>
+      </c>
+      <c r="D51" t="n">
+        <v>2.297797931176249e-06</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.1013196473845433</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0002753677632044408</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.000314565056458316</v>
+      </c>
+      <c r="H51" t="n">
+        <v>-8.592239399822206e-07</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[-0.00293651  0.00288598]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>[[-3.32798843 -4.32798843]
+ [-4.32798843 -3.32798843]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.0001285421809656749</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.001128425038857214</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.438573991194029e-06</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.08212586012954698</v>
+      </c>
+      <c r="F52" t="n">
+        <v>-0.0002111327434946787</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-0.0001853457538157324</v>
+      </c>
+      <c r="H52" t="n">
+        <v>-4.809634431311035e-07</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[0.00257084 0.00225685]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>-8.259056252900383e-05</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.0009430792850414818</v>
+      </c>
+      <c r="D53" t="n">
+        <v>9.576105480629253e-07</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.08240589371161958</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0001543985440874571</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-0.0001371510209090194</v>
+      </c>
+      <c r="H53" t="n">
+        <v>-2.565263189803696e-07</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[-0.00165181  0.00188616]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>[[ 0.05344138 -0.94655862]
+ [-0.94655862  0.05344138]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7.180798155845326e-05</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.0008059282641324625</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7.010842290825558e-07</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F54" t="n">
+        <v>4.933237130419279e-06</v>
+      </c>
+      <c r="G54" t="n">
+        <v>4.868832144106763e-06</v>
+      </c>
+      <c r="H54" t="n">
+        <v>1.519984870649415e-08</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[0.00143616 0.00161186]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>[[-3.88646942 -4.88646942]
+ [-4.88646942 -3.88646942]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>7.674121868887254e-05</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.0008107970962765692</v>
+      </c>
+      <c r="D55" t="n">
+        <v>7.162840777890499e-07</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.008497187473712045</v>
+      </c>
+      <c r="F55" t="n">
+        <v>-0.0001416816931674861</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-0.0001424189925846831</v>
+      </c>
+      <c r="H55" t="n">
+        <v>-2.273821360392137e-07</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[0.00153482 0.00162159]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>[[5.79629902 4.79629902]
+ [4.79629902 5.79629902]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>-6.494047447861352e-05</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.0006683781036918861</v>
+      </c>
+      <c r="D56" t="n">
+        <v>4.889019417498362e-07</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.07354213751997882</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.0001098656741678606</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-8.395946076061953e-05</v>
+      </c>
+      <c r="H56" t="n">
+        <v>-1.271740558730257e-07</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[-0.00129881  0.00133676]</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>[[-4.14155474 -5.14155474]
+ [-5.14155474 -4.14155474]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4.492519968924709e-05</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.0005844186429312666</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.617278858768105e-07</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.114928368734753</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-0.000103263598307364</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-0.0001343325625805371</v>
+      </c>
+      <c r="H57" t="n">
+        <v>-1.251167186180641e-07</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[0.0008985  0.00116884]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>[[1 0]
+ [0 1]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>-5.833839861811693e-05</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.0004500860803507295</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.366111672587464e-07</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.1084370951223967</v>
+      </c>
+      <c r="F58" t="n">
+        <v>9.927398102973395e-05</v>
+      </c>
+      <c r="G58" t="n">
+        <v>-0.0001248590027916044</v>
+      </c>
+      <c r="H58" t="n">
+        <v>-1.140812962073143e-07</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>[-0.00116677  0.00090017]</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>[[ 0.05748846 -0.94251154]
+ [-0.94251154  0.05748846]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.093558241161702e-05</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.0003252270775591251</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.225298710514321e-07</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.000366568717928702</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.783075642217309e-06</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.844753575750064e-06</v>
+      </c>
+      <c r="H59" t="n">
+        <v>2.694949129692509e-09</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[0.00081871 0.00065045]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>[[-2.86814381 -3.86814381]
+ [-3.86814381 -2.86814381]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4.271865805383433e-05</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.0003270718311348752</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.252248201811246e-07</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.01041656619921168</v>
+      </c>
+      <c r="F60" t="n">
+        <v>-6.878478796929262e-05</v>
+      </c>
+      <c r="G60" t="n">
+        <v>-6.669908413993518e-05</v>
+      </c>
+      <c r="H60" t="n">
+        <v>-5.063642151573803e-08</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[0.00085437 0.00065414]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>[[4.8110481 3.8110481]
+ [3.8110481 4.8110481]]</t>
         </is>
       </c>
     </row>
